--- a/aa/res.xlsx
+++ b/aa/res.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lx\myhouse\aa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +46,7 @@
     <t>别名联玉，以恭长子，生期不详，住大定九陇底，卒期不详，葬冷比窝。</t>
   </si>
   <si>
-    <t>婚配余氏卒期不详，葬六枝小平寨继配卢氏子五：问礼、问达、问民、问政、问志。</t>
+    <t>余氏卒期不详，葬六枝小平寨卢氏子五：问礼、问达、问民、问政、问志。</t>
   </si>
   <si>
     <t>十一世</t>
@@ -63,7 +58,7 @@
     <t>方成长子，生期不详，住大定九陇底（下同），卒期不详，葬大方乌溪。</t>
   </si>
   <si>
-    <t>婚配王氏生卒期不详，葬大方乌溪，生子二：朝凤、朝贵。</t>
+    <t>王氏生卒期不详，葬大方乌溪，生子二：朝凤、朝贵。</t>
   </si>
   <si>
     <t>十二世</t>
@@ -75,7 +70,7 @@
     <t>方成次子，生期不详，住水城张家丫口（下同）。</t>
   </si>
   <si>
-    <t>婚配氏生子一：朝汉。</t>
+    <t>氏生子一：朝汉。</t>
   </si>
   <si>
     <t>张问民</t>
@@ -84,7 +79,7 @@
     <t>方成三子，生期不详，住大定九陇底（下同）。</t>
   </si>
   <si>
-    <t>婚配王氏生子一：朝觐。</t>
+    <t>王氏生子一：朝觐。</t>
   </si>
   <si>
     <t>张问政</t>
@@ -93,7 +88,7 @@
     <t>方成四子，生期不详，在大定九陇底生长人氏，住六枝乌期。</t>
   </si>
   <si>
-    <t>婚配王氏生卒期不详，葬逆乌期。继配姜氏生卒期不详，葬逆乌期，生子五：朝选、朝辅、朝汉、朝儒、朝聘。</t>
+    <t>王氏生卒期不详，葬逆乌期。姜氏生卒期不详，葬逆乌期，生子五：朝选、朝辅、朝汉、朝儒、朝聘。</t>
   </si>
   <si>
     <t>张朝凤</t>
@@ -102,7 +97,7 @@
     <t>问礼长子。</t>
   </si>
   <si>
-    <t>婚配段氏生子四：玉泌、玉群、玉升、玉昭。</t>
+    <t>段氏生子四：玉泌、玉群、玉升、玉昭。</t>
   </si>
   <si>
     <t>十三世</t>
@@ -120,7 +115,7 @@
     <t>问达长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：玉珩。</t>
+    <t>氏生子一：玉珩。</t>
   </si>
   <si>
     <t>张朝觐</t>
@@ -129,7 +124,7 @@
     <t>问民长子。</t>
   </si>
   <si>
-    <t>婚配朱氏生子二：张耀、张璨。</t>
+    <t>朱氏生子二：张耀、张璨。</t>
   </si>
   <si>
     <t>张朝选</t>
@@ -138,7 +133,7 @@
     <t>问政长子，生期不详，在六枝乌期生长人氏，住六枝新场岩脚（下同），卒期不详，葬六枝新场岩脚寨戛伞底，有碑记。</t>
   </si>
   <si>
-    <t>婚配尚氏生卒期不详，葬新场岩脚戛伞底，生子二：张旬、张玉。</t>
+    <t>尚氏生卒期不详，葬新场岩脚戛伞底，生子二：张旬、张玉。</t>
   </si>
   <si>
     <t>张朝辅</t>
@@ -147,13 +142,13 @@
     <t>问政次子，生期不详，在六枝乌期生长人氏，住怯里华场。</t>
   </si>
   <si>
-    <t>婚配田氏生子四：张昆、张蕃、张瑗、张卦。</t>
+    <t>田氏生子四：张昆、张蕃、张瑗、张卦。</t>
   </si>
   <si>
     <t>问政三子，生期不详，住六枝乌期。</t>
   </si>
   <si>
-    <t>婚配尚氏生子三：玉聪、玉龙、玉珩。</t>
+    <t>尚氏生子三：玉聪、玉龙、玉珩。</t>
   </si>
   <si>
     <t>张玉泌</t>
@@ -162,7 +157,7 @@
     <t>朝凤长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：学林。</t>
+    <t>氏生子一：学林。</t>
   </si>
   <si>
     <t>十四世</t>
@@ -174,7 +169,7 @@
     <t>朝凤次子，生卒葬不详，住大方九陇底（下同）。</t>
   </si>
   <si>
-    <t>婚配氏生子一：学才。</t>
+    <t>氏生子一：学才。</t>
   </si>
   <si>
     <t>张玉升</t>
@@ -195,7 +190,7 @@
     <t>朝汉长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：学凤。</t>
+    <t>氏生子一：学凤。</t>
   </si>
   <si>
     <t>张耀</t>
@@ -204,7 +199,7 @@
     <t>朝觐长子。</t>
   </si>
   <si>
-    <t>婚配朱氏生子二：后裔不详。</t>
+    <t>朱氏生子二：后裔不详。</t>
   </si>
   <si>
     <t>张璨</t>
@@ -213,7 +208,7 @@
     <t>朝觐次子。</t>
   </si>
   <si>
-    <t>婚配彭氏继配王氏生子二：学义、学申。</t>
+    <t>彭氏王氏生子二：学义、学申。</t>
   </si>
   <si>
     <t>张旬</t>
@@ -222,7 +217,7 @@
     <t>朝选长子。</t>
   </si>
   <si>
-    <t>婚配吴氏生子六：学凤、学富、学礼、学虎、学龙、学登。</t>
+    <t>吴氏生子六：学凤、学富、学礼、学虎、学龙、学登。</t>
   </si>
   <si>
     <t>张玉</t>
@@ -231,7 +226,7 @@
     <t>朝选次子，生期不详，住六枝乌期。</t>
   </si>
   <si>
-    <t>婚配氏生子二：学文、学武。</t>
+    <t>氏生子二：学文、学武。</t>
   </si>
   <si>
     <t>张昆</t>
@@ -273,7 +268,7 @@
     <t>朝汉三子，生期不详，在六枝乌期生长人氏，住六枝张家街。</t>
   </si>
   <si>
-    <t>婚配赵氏生子三：学虎、学龙、学凤。</t>
+    <t>赵氏生子三：学虎、学龙、学凤。</t>
   </si>
   <si>
     <t>张朝儒</t>
@@ -294,7 +289,7 @@
     <t>玉泌长子。</t>
   </si>
   <si>
-    <t>婚配蒋氏子一：恃帮。</t>
+    <t>蒋氏子一：恃帮。</t>
   </si>
   <si>
     <t>十五世</t>
@@ -306,7 +301,7 @@
     <t>玉群长子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：进帮、克帮。</t>
+    <t>氏生子二：进帮、克帮。</t>
   </si>
   <si>
     <t>张学凤</t>
@@ -315,7 +310,7 @@
     <t>玉珩长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：庆帮</t>
+    <t>氏生子一：庆帮</t>
   </si>
   <si>
     <t>张学义</t>
@@ -330,7 +325,7 @@
     <t>张璨次子，生卒期不详，葬松树坡。</t>
   </si>
   <si>
-    <t>婚配施氏生子二：盛帮、贤帮。</t>
+    <t>施氏生子二：盛帮、贤帮。</t>
   </si>
   <si>
     <t>张旬长子，不详。</t>
@@ -342,7 +337,7 @@
     <t>张旬次子，生卒期不详，葬六枝岩脚寨。</t>
   </si>
   <si>
-    <t>婚配艾氏生卒期不详，葬六枝岩脚寨，生子一：为帮。</t>
+    <t>艾氏生卒期不详，葬六枝岩脚寨，生子一：为帮。</t>
   </si>
   <si>
     <t>张学礼</t>
@@ -351,7 +346,7 @@
     <t>张旬三子，生期不详，住六枝新场岩脚（下同），卒期不详，葬岩脚寨上寨有碑记，</t>
   </si>
   <si>
-    <t>婚配肖氏生卒期不详，葬小屯脚，生子一：新邦。</t>
+    <t>肖氏生卒期不详，葬小屯脚，生子一：新邦。</t>
   </si>
   <si>
     <t>张学虎</t>
@@ -360,7 +355,7 @@
     <t>张旬四子。</t>
   </si>
   <si>
-    <t>婚配杨氏生子三：庆邦、云邦、云邦。</t>
+    <t>杨氏生子三：庆邦、云邦、云邦。</t>
   </si>
   <si>
     <t>张学龙</t>
@@ -369,7 +364,7 @@
     <t>别名玉龙，张旬五子。</t>
   </si>
   <si>
-    <t>婚配杨氏生子三：启发、启富、启财。</t>
+    <t>杨氏生子三：启发、启富、启财。</t>
   </si>
   <si>
     <t>张学登</t>
@@ -384,7 +379,7 @@
     <t>张玉长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：定邦。</t>
+    <t>氏生子一：定邦。</t>
   </si>
   <si>
     <t>张学武</t>
@@ -402,7 +397,7 @@
     <t>玉珩三子，生期不详，住六枝汪家街，卒期不详，葬汪家街。</t>
   </si>
   <si>
-    <t>婚配施氏生子一：庆邦。</t>
+    <t>施氏生子一：庆邦。</t>
   </si>
   <si>
     <t>张恃帮</t>
@@ -411,7 +406,7 @@
     <t>学林长子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：国兴、国容。</t>
+    <t>氏生子二：国兴、国容。</t>
   </si>
   <si>
     <t>十六世</t>
@@ -423,7 +418,7 @@
     <t>学才长子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：国治、国恩。</t>
+    <t>氏生子二：国治、国恩。</t>
   </si>
   <si>
     <t>张克帮</t>
@@ -432,7 +427,7 @@
     <t>学才次子，生期不详，住水城张家丫口（下同）。</t>
   </si>
   <si>
-    <t>婚配氏生子一：国祯。</t>
+    <t>氏生子一：国祯。</t>
   </si>
   <si>
     <t>张庆帮</t>
@@ -441,7 +436,7 @@
     <t>学凤长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：国光。</t>
+    <t>氏生子一：国光。</t>
   </si>
   <si>
     <t>张盛帮</t>
@@ -450,7 +445,7 @@
     <t>学申长子。</t>
   </si>
   <si>
-    <t>婚配蔡氏生子二：国法、国用。</t>
+    <t>蔡氏生子二：国法、国用。</t>
   </si>
   <si>
     <t>张贤帮</t>
@@ -465,7 +460,7 @@
     <t>学富长子。</t>
   </si>
   <si>
-    <t>婚配王氏生子三：国统、国玺、国应。</t>
+    <t>王氏生子三：国统、国玺、国应。</t>
   </si>
   <si>
     <t>张新帮</t>
@@ -474,7 +469,7 @@
     <t>学礼长子。</t>
   </si>
   <si>
-    <t>婚配王氏不详。</t>
+    <t>王氏不详。</t>
   </si>
   <si>
     <t>学虎长子。</t>
@@ -486,7 +481,7 @@
     <t>学虎次子。</t>
   </si>
   <si>
-    <t>婚配汪氏生子二：小八、国良。</t>
+    <t>汪氏生子二：小八、国良。</t>
   </si>
   <si>
     <t>张启发</t>
@@ -495,7 +490,7 @@
     <t>学龙长子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：发春、发林</t>
+    <t>氏生子二：发春、发林</t>
   </si>
   <si>
     <t>张启富</t>
@@ -519,7 +514,7 @@
     <t>学凤长子，生期不详，在六枝汪家街生长人氏，住六枝滥田坝，卒期不详，葬鱼塘丫口。</t>
   </si>
   <si>
-    <t>婚配胡氏生卒期不详，葬贾社，生子一：国成。</t>
+    <t>胡氏生卒期不详，葬贾社，生子一：国成。</t>
   </si>
   <si>
     <t>张国兴</t>
@@ -528,7 +523,7 @@
     <t>恃帮长子，生期不详，在大定九陇底生长人氏，住纳雍猫场张家丫口，卒期不详，葬白岩脚毛草包包。</t>
   </si>
   <si>
-    <t>婚配氏生卒期不详，葬大牛场林，生子三：家修、家齐、家志。</t>
+    <t>氏生卒期不详，葬大牛场林，生子三：家修、家齐、家志。</t>
   </si>
   <si>
     <t>十七世</t>
@@ -552,7 +547,7 @@
     <t>进帮次子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：家修。</t>
+    <t>氏生子一：家修。</t>
   </si>
   <si>
     <t>张国祯</t>
@@ -561,7 +556,7 @@
     <t>克帮长子。</t>
   </si>
   <si>
-    <t>婚配李氏生子一：家苗。</t>
+    <t>李氏生子一：家苗。</t>
   </si>
   <si>
     <t>张国光</t>
@@ -570,7 +565,7 @@
     <t>庆帮长子。</t>
   </si>
   <si>
-    <t>婚配氏生子一：家玉。</t>
+    <t>氏生子一：家玉。</t>
   </si>
   <si>
     <t>张国法</t>
@@ -579,7 +574,7 @@
     <t>盛帮长子，生卒期不详，葬发贡。</t>
   </si>
   <si>
-    <t>婚配刘氏继配胡氏生子四：家淮、家河、家汉、裕顺。</t>
+    <t>刘氏胡氏生子四：家淮、家河、家汉、裕顺。</t>
   </si>
   <si>
     <t>张国用</t>
@@ -594,7 +589,7 @@
     <t>为帮长子，生卒期不详，葬岩脚寨罗家小箐。</t>
   </si>
   <si>
-    <t>婚配谢氏生卒期不详，葬小屯脚，生子二：家林、家月。</t>
+    <t>谢氏生卒期不详，葬小屯脚，生子二：家林、家月。</t>
   </si>
   <si>
     <t>张国玺</t>
@@ -621,7 +616,7 @@
     <t>云邦次子。</t>
   </si>
   <si>
-    <t>婚配陈氏生子三：家荣、润福、玉清。</t>
+    <t>陈氏生子三：家荣、润福、玉清。</t>
   </si>
   <si>
     <t>张发春</t>
@@ -630,7 +625,7 @@
     <t>启发长子，生期不详，在安顺周家桥泽戛生长人氏，住六枝特区牛场上寨（下同），卒期不详，葬小箐上，乾山巽向。</t>
   </si>
   <si>
-    <t>婚配沙氏生子二：兴国、兴奎。</t>
+    <t>沙氏生子二：兴国、兴奎。</t>
   </si>
   <si>
     <t>张发林</t>
@@ -639,7 +634,7 @@
     <t>启发次子，生期不详，住六枝牛场上寨（下同），卒期不详，葬六枝干水井，申山寅向。</t>
   </si>
   <si>
-    <t>婚配氏生子一：贵生。</t>
+    <t>氏生子一：贵生。</t>
   </si>
   <si>
     <t>张国成</t>
@@ -648,7 +643,7 @@
     <t>庆邦长子，生期不详，在六枝滥田坝生长人氏，住六枝埃冲（下同），卒期不详，葬百区围墙边。</t>
   </si>
   <si>
-    <t>婚配王氏继配付氏生子五：家珍、家祥、家元、家亮、德昌。</t>
+    <t>王氏付氏生子五：家珍、家祥、家元、家亮、德昌。</t>
   </si>
   <si>
     <t>张家修</t>
@@ -666,7 +661,7 @@
     <t>国兴次子，生期不详，住纳雍猫场张家丫口，卒期不详，葬望天冲。</t>
   </si>
   <si>
-    <t>婚配李氏期不详，在武佐生长人氏，卒期不详，葬石板河尧家湾，生子二：文科、文仲。</t>
+    <t>李氏期不详，在武佐生长人氏，卒期不详，葬石板河尧家湾，生子二：文科、文仲。</t>
   </si>
   <si>
     <t>张家志</t>
@@ -678,7 +673,7 @@
     <t>国恩长子。</t>
   </si>
   <si>
-    <t>婚配罗氏子四：文良、文学、文榜、文周。</t>
+    <t>罗氏子四：文良、文学、文榜、文周。</t>
   </si>
   <si>
     <t>张家苗</t>
@@ -687,7 +682,7 @@
     <t>国祯长子。</t>
   </si>
   <si>
-    <t>婚配雷氏生子一：文清。</t>
+    <t>雷氏生子一：文清。</t>
   </si>
   <si>
     <t>张家玉</t>
@@ -696,7 +691,7 @@
     <t>国光长子。</t>
   </si>
   <si>
-    <t>婚配杨氏生子二：文英、文兰。</t>
+    <t>杨氏生子二：文英、文兰。</t>
   </si>
   <si>
     <t>张家淮</t>
@@ -711,7 +706,7 @@
     <t>国法次子。</t>
   </si>
   <si>
-    <t>婚配谢氏生子三：文明、文顺、文开。</t>
+    <t>谢氏生子三：文明、文顺、文开。</t>
   </si>
   <si>
     <t>张家汉</t>
@@ -720,7 +715,7 @@
     <t>国法三子，生期不详，住水城县化乐乡（下同），卒期不详，葬老屋基。</t>
   </si>
   <si>
-    <t>婚配朱氏生子一：文有。</t>
+    <t>朱氏生子一：文有。</t>
   </si>
   <si>
     <t>张裕顺</t>
@@ -729,7 +724,7 @@
     <t>国法四子，生于一八六〇年，由毕节长春堡迁入水城小河老鹰山脚入赘丁家，卒于一九三五年，葬于水城老鹰山下。</t>
   </si>
   <si>
-    <t>婚配丁氏生卒期不详，在水城老鹰山生长人氏，葬于老鹰山王家大坡，生子二：炳忠、顺清，生女一：张某。</t>
+    <t>丁氏生卒期不详，在水城老鹰山生长人氏，葬于老鹰山王家大坡，生子二：炳忠、顺清，生女一：张某。</t>
   </si>
   <si>
     <t>张家林</t>
@@ -738,7 +733,7 @@
     <t>国统长子，生卒期不详，葬林窝。</t>
   </si>
   <si>
-    <t>婚配李氏生子二：文才、文有。</t>
+    <t>李氏生子二：文才、文有。</t>
   </si>
   <si>
     <t>张家月</t>
@@ -747,7 +742,7 @@
     <t>国统次子。</t>
   </si>
   <si>
-    <t>婚配傅氏</t>
+    <t>傅氏</t>
   </si>
   <si>
     <t>张家荣</t>
@@ -756,7 +751,7 @@
     <t>国良长子。</t>
   </si>
   <si>
-    <t>婚配尚氏生子一：文举。继配汪氏生卒期不详，葬安顺周家桥，生子四：少益、文元、文忠、文舟。</t>
+    <t>尚氏生子一：文举。汪氏生卒期不详，葬安顺周家桥，生子四：少益、文元、文忠、文舟。</t>
   </si>
   <si>
     <t>张润福</t>
@@ -777,7 +772,7 @@
     <t>发春长子。</t>
   </si>
   <si>
-    <t>婚配龚氏生子四：文炳、文和、文法、文海。</t>
+    <t>龚氏生子四：文炳、文和、文法、文海。</t>
   </si>
   <si>
     <t>张兴奎</t>
@@ -786,7 +781,7 @@
     <t>发春次子，生于一九〇七年。</t>
   </si>
   <si>
-    <t>婚配陈氏生于一九〇三年，生子二：少武、福元。</t>
+    <t>陈氏生于一九〇三年，生子二：少武、福元。</t>
   </si>
   <si>
     <t>张贵生</t>
@@ -795,7 +790,7 @@
     <t>发林长子，生卒期不详，葬六枝干水井，庚山甲向。</t>
   </si>
   <si>
-    <t>婚配刘氏生卒期不详，葬六枝磨坟边，未山丑向，生子二：小九、小十。</t>
+    <t>刘氏生卒期不详，葬六枝磨坟边，未山丑向，生子二：小九、小十。</t>
   </si>
   <si>
     <t>张家珍</t>
@@ -804,7 +799,7 @@
     <t>国成长子，生卒期不详，葬百区围墙边。</t>
   </si>
   <si>
-    <t>婚配周氏生卒期不详，葬于七锦囊寨子小屯脚。继配高氏生卒期不详，葬百区围墙边，生子五：文志、文仲、文相、文达、文朝。</t>
+    <t>周氏生卒期不详，葬于七锦囊寨子小屯脚。高氏生卒期不详，葬百区围墙边，生子五：文志、文仲、文相、文达、文朝。</t>
   </si>
   <si>
     <t>张家祥</t>
@@ -819,7 +814,7 @@
     <t>国成三子，生于一九一八年九月，住六枝埃冲（下同），卒期不详，葬百区围墙边。</t>
   </si>
   <si>
-    <t>婚配尚氏生卒期不详，葬百区围墙边，生子三：文先、文才、文权。继配代氏生卒期不详，葬百区马家旮旯。</t>
+    <t>尚氏生卒期不详，葬百区围墙边，生子三：文先、文才、文权。代氏生卒期不详，葬百区马家旮旯。</t>
   </si>
   <si>
     <t>张家亮</t>
@@ -834,7 +829,7 @@
     <t>国成五子，生卒期不详，葬百区马家旁边。</t>
   </si>
   <si>
-    <t>婚配罗氏生卒期不详，百区葬马家旁边。</t>
+    <t>罗氏生卒期不详，百区葬马家旁边。</t>
   </si>
   <si>
     <t>张文科</t>
@@ -852,7 +847,7 @@
     <t>家齐次子，生期不详，住纳雍猫场张家丫口。</t>
   </si>
   <si>
-    <t>婚配魏氏期不详，在魏家寨生长人氏。继配赵氏小寨生长人氏，生子三：彩达、彩仁、彩益。</t>
+    <t>魏氏期不详，在魏家寨生长人氏。赵氏小寨生长人氏，生子三：彩达、彩仁、彩益。</t>
   </si>
   <si>
     <t>张文良</t>
@@ -861,7 +856,7 @@
     <t>家修长子，生期不详，在大方九陇底生长人氏，住老马场（下同）。</t>
   </si>
   <si>
-    <t>婚配陈氏子一：彩伍。</t>
+    <t>陈氏子一：彩伍。</t>
   </si>
   <si>
     <t>张文学</t>
@@ -882,13 +877,13 @@
     <t>家修四子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：彩文、毛包。</t>
+    <t>氏生子二：彩文、毛包。</t>
   </si>
   <si>
     <t>家修五子，生期不详，在水城小高炉生长人氏，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配蒋氏卒期不详，葬官寨，生子二：启荣、启华。</t>
+    <t>蒋氏卒期不详，葬官寨，生子二：启荣、启华。</t>
   </si>
   <si>
     <t>张文祥</t>
@@ -897,7 +892,7 @@
     <t>家修六子，生期不详，在水城老鹰山白岩脚生长人氏，住水城石板河（下同），卒期不详，葬余家老屋基。</t>
   </si>
   <si>
-    <t>婚配蔡氏生卒期不详，葬石城麻窝，生子二：富贵、彩荣</t>
+    <t>蔡氏生卒期不详，葬石城麻窝，生子二：富贵、彩荣</t>
   </si>
   <si>
     <t>张文清</t>
@@ -906,7 +901,7 @@
     <t>家苗长子。</t>
   </si>
   <si>
-    <t>婚配余氏继配杜氏生子二：彩华、彩发。</t>
+    <t>余氏杜氏生子二：彩华、彩发。</t>
   </si>
   <si>
     <t>张文英</t>
@@ -915,7 +910,7 @@
     <t>家玉长子。</t>
   </si>
   <si>
-    <t>婚配杨氏生子一：彩贵。</t>
+    <t>杨氏生子一：彩贵。</t>
   </si>
   <si>
     <t>张文兰</t>
@@ -924,7 +919,7 @@
     <t>家玉次子，生卒期不详，葬生地丰家丫口。</t>
   </si>
   <si>
-    <t>婚配杨氏生卒期不详，葬老鹰山干塘边，生子四：彩洪、彩忠、彩华、彩庆。</t>
+    <t>杨氏生卒期不详，葬老鹰山干塘边，生子四：彩洪、彩忠、彩华、彩庆。</t>
   </si>
   <si>
     <t>张文明</t>
@@ -933,7 +928,7 @@
     <t>家河长子，生期不详，住水城县化乐乡（下同）。</t>
   </si>
   <si>
-    <t>婚配田氏生子一：彩和。</t>
+    <t>田氏生子一：彩和。</t>
   </si>
   <si>
     <t>张文有</t>
@@ -942,7 +937,7 @@
     <t>家汉长子，生卒期不详，葬松树坡。</t>
   </si>
   <si>
-    <t>婚配李氏生卒期不详，葬场地，生子一：彩云。</t>
+    <t>李氏生卒期不详，葬场地，生子一：彩云。</t>
   </si>
   <si>
     <t>张某</t>
@@ -957,7 +952,7 @@
     <t>裕顺长子，生于一八八五年，卒于一九一九年，迁葬水城老鹰山王家大坡。</t>
   </si>
   <si>
-    <t>婚配黄氏生卒期不详，葬于老鹰山王家大坡，生子一：银成，生女一：张某。</t>
+    <t>黄氏生卒期不详，葬于老鹰山王家大坡，生子一：银成，生女一：张某。</t>
   </si>
   <si>
     <t>张顺清</t>
@@ -966,7 +961,7 @@
     <t>裕顺次子，生于一八八六年，卒于一九五六年，葬于白丽龙井坡。</t>
   </si>
   <si>
-    <t>婚配雷氏生卒期不详，葬于白丽学校边，生子三：银武、开林、开文，生女六：老鹰、启珍、开兰、文珍、怀珍、文秀。</t>
+    <t>雷氏生卒期不详，葬于白丽学校边，生子三：银武、开林、开文，生女六：老鹰、启珍、开兰、文珍、怀珍、文秀。</t>
   </si>
   <si>
     <t>张文才</t>
@@ -975,13 +970,13 @@
     <t>家林长子，生卒期不详，葬罗鸡戛。</t>
   </si>
   <si>
-    <t>婚配蒋氏生卒期不详，葬麻窝田，生子一：彩洪。</t>
+    <t>蒋氏生卒期不详，葬麻窝田，生子一：彩洪。</t>
   </si>
   <si>
     <t>家林次子。</t>
   </si>
   <si>
-    <t>婚配肖氏生子一：彩凤。</t>
+    <t>肖氏生子一：彩凤。</t>
   </si>
   <si>
     <t>张文举</t>
@@ -990,7 +985,7 @@
     <t>家荣长子。</t>
   </si>
   <si>
-    <t>婚配周氏继配付氏生子二：彩祯、彩祥。</t>
+    <t>周氏付氏生子二：彩祯、彩祥。</t>
   </si>
   <si>
     <t>张少益</t>
@@ -999,7 +994,7 @@
     <t>家荣次子，生期不详，在六枝新场岩脚生长人氏，住安顺周家桥。</t>
   </si>
   <si>
-    <t>婚配汪氏生子一：彩高。</t>
+    <t>汪氏生子一：彩高。</t>
   </si>
   <si>
     <t>张文元</t>
@@ -1014,7 +1009,7 @@
     <t>家荣四子，生期不详，在安顺周家桥生长人氏，住安顺周家桥泽戛（下同）。</t>
   </si>
   <si>
-    <t>婚配氏生子三：彩祥、彩富、彩龙。</t>
+    <t>氏生子三：彩祥、彩富、彩龙。</t>
   </si>
   <si>
     <t>张文舟</t>
@@ -1029,7 +1024,7 @@
     <t>兴国长子，生于一八九〇年。</t>
   </si>
   <si>
-    <t>婚配王氏生于一八九七年，生子四：彩周、开学、彩高、彩云。</t>
+    <t>王氏生于一八九七年，生子四：彩周、开学、彩高、彩云。</t>
   </si>
   <si>
     <t>张文和</t>
@@ -1038,7 +1033,7 @@
     <t>兴国次子，生卒期不详，葬磨坟边，坤山艮向。</t>
   </si>
   <si>
-    <t>婚配高氏生于一九〇三年，卒期不详，葬轿子山，坤山艮向。</t>
+    <t>高氏生于一九〇三年，卒期不详，葬轿子山，坤山艮向。</t>
   </si>
   <si>
     <t>张文法</t>
@@ -1047,7 +1042,7 @@
     <t>兴国三子，生卒期不详，葬磨坟边，申山寅向。</t>
   </si>
   <si>
-    <t>婚配龚氏</t>
+    <t>龚氏</t>
   </si>
   <si>
     <t>张文海</t>
@@ -1056,7 +1051,7 @@
     <t>兴国四子，生于一八九二年，卒期不详，葬磨坟边，艮山坤向。</t>
   </si>
   <si>
-    <t>婚配沙氏生于一九〇六年，卒期不详，葬磨坟边，申山寅向，生子二：志舟、彩祥。</t>
+    <t>沙氏生于一九〇六年，卒期不详，葬磨坟边，申山寅向，生子二：志舟、彩祥。</t>
   </si>
   <si>
     <t>张少武</t>
@@ -1065,7 +1060,7 @@
     <t>兴奎长子，生于一九〇七年。</t>
   </si>
   <si>
-    <t>婚配高氏生于一九〇三年，生子一：彩文。</t>
+    <t>高氏生于一九〇三年，生子一：彩文。</t>
   </si>
   <si>
     <t>张福元</t>
@@ -1080,7 +1075,7 @@
     <t>贵生长子。</t>
   </si>
   <si>
-    <t>婚配王氏生子一：润安。</t>
+    <t>王氏生子一：润安。</t>
   </si>
   <si>
     <t>张小十</t>
@@ -1089,7 +1084,7 @@
     <t>贵生次子。</t>
   </si>
   <si>
-    <t>婚配周氏生子一：元先。</t>
+    <t>周氏生子一：元先。</t>
   </si>
   <si>
     <t>张文志</t>
@@ -1098,13 +1093,13 @@
     <t>家珍长子，生于一九二二年四月。</t>
   </si>
   <si>
-    <t>婚配谢氏生子四：彩明、彩权、彩祥、彩奎。</t>
+    <t>谢氏生子四：彩明、彩权、彩祥、彩奎。</t>
   </si>
   <si>
     <t>家珍次子。</t>
   </si>
   <si>
-    <t>婚配段氏</t>
+    <t>段氏</t>
   </si>
   <si>
     <t>张文相</t>
@@ -1113,7 +1108,7 @@
     <t>家珍三子，生于一九二七年五月，住六枝埃冲（下同）。</t>
   </si>
   <si>
-    <t>婚配周氏继配吴氏生子一：彩荣。</t>
+    <t>周氏吴氏生子一：彩荣。</t>
   </si>
   <si>
     <t>张文达</t>
@@ -1122,7 +1117,7 @@
     <t>家珍四子，生于一九二八年。</t>
   </si>
   <si>
-    <t>婚配陶氏生子五：彩学、彩富、张学、彩中、彩进。</t>
+    <t>陶氏生子五：彩学、彩富、张学、彩中、彩进。</t>
   </si>
   <si>
     <t>张文朝</t>
@@ -1131,7 +1126,7 @@
     <t>家珍五子，生于一九四九年五月，住六枝埃冲（下同）。</t>
   </si>
   <si>
-    <t>婚配郭氏生子三：张坤、张平、三平。</t>
+    <t>郭氏生子三：张坤、张平、三平。</t>
   </si>
   <si>
     <t>张文先</t>
@@ -1140,13 +1135,13 @@
     <t>家元长子，生于一九三七年七月。</t>
   </si>
   <si>
-    <t>婚配氏生子三：彩林、彩伦、彩贤。</t>
+    <t>氏生子三：彩林、彩伦、彩贤。</t>
   </si>
   <si>
     <t>家元次子，生于一九四一年二月，卒期不详，葬肖家岩头塘坎上，庚山甲向。</t>
   </si>
   <si>
-    <t>婚配尚氏生子二：彩云、彩友。</t>
+    <t>尚氏生子二：彩云、彩友。</t>
   </si>
   <si>
     <t>张文权</t>
@@ -1155,7 +1150,7 @@
     <t>家元三子，生于一九四三年六月。</t>
   </si>
   <si>
-    <t>婚配代氏生子二：张品、彩刚。</t>
+    <t>代氏生子二：张品、彩刚。</t>
   </si>
   <si>
     <t>张彩达</t>
@@ -1179,7 +1174,7 @@
     <t>文仲三子，生于甲戌年十二月十三日，住纳雍猫场张家丫口，卒期不详，葬四十二猴子坡。</t>
   </si>
   <si>
-    <t>婚配赵国芝生于甲寅年九月二十日，生子五：昭明、昭林、张鹏、张程、张龙。继配韦氏子一：张旭。</t>
+    <t>赵国芝生于甲寅年九月二十日，生子五：昭明、昭林、张鹏、张程、张龙。韦氏子一：张旭。</t>
   </si>
   <si>
     <t>张彩伍</t>
@@ -1188,7 +1183,7 @@
     <t>文良长子。</t>
   </si>
   <si>
-    <t>婚配何氏子二：昭贵、昭明。</t>
+    <t>何氏子二：昭贵、昭明。</t>
   </si>
   <si>
     <t>张彩文</t>
@@ -1197,7 +1192,7 @@
     <t>文周长子，生期不详，在老马场生长人氏，住水城小高炉（下同）。</t>
   </si>
   <si>
-    <t>婚配氏生子三：昭云、昭平、昭全。</t>
+    <t>氏生子三：昭云、昭平、昭全。</t>
   </si>
   <si>
     <t>张毛包</t>
@@ -1212,7 +1207,7 @@
     <t>文科长子，生于甲寅年六月六日，住水城老鹰山白岩脚，卒期不详，葬唐家湾。</t>
   </si>
   <si>
-    <t>婚配蒋孝珍生于甲寅年七月十三日，在老鹰山白岩脚生长人氏，卒期不详，葬官寨，生子二：昭全、昭贤，生女四：昭珍、昭良、昭珍、昭英。</t>
+    <t>蒋孝珍生于甲寅年七月十三日，在老鹰山白岩脚生长人氏，卒期不详，葬官寨，生子二：昭全、昭贤，生女四：昭珍、昭良、昭珍、昭英。</t>
   </si>
   <si>
     <t>张启华</t>
@@ -1221,7 +1216,7 @@
     <t>文科次子，生期不详，住水城老鹰山白岩脚（下同），卒期不详，葬官寨。</t>
   </si>
   <si>
-    <t>婚配李氏生卒期不详，葬卢家场，生子二：昭举、昭学，生女四：昭兰、昭珍、昭秀、昭凤。</t>
+    <t>李氏生卒期不详，葬卢家场，生子二：昭举、昭学，生女四：昭兰、昭珍、昭秀、昭凤。</t>
   </si>
   <si>
     <t>张富贵</t>
@@ -1236,7 +1231,7 @@
     <t>文祥次子，生于乙丑年三月三十日，卒期不详，葬大院子。</t>
   </si>
   <si>
-    <t>婚配赵远兰生于一九二四年九月二十三日，生子二：昭云、昭伦，生女三：昭群、昭支、昭芬。</t>
+    <t>赵远兰生于一九二四年九月二十三日，生子二：昭云、昭伦，生女三：昭群、昭支、昭芬。</t>
   </si>
   <si>
     <t>张彩华</t>
@@ -1245,7 +1240,7 @@
     <t>文清长子。</t>
   </si>
   <si>
-    <t>婚配氏生子五：昭全、昭伦、昭荣、昭贵、昭元。</t>
+    <t>氏生子五：昭全、昭伦、昭荣、昭贵、昭元。</t>
   </si>
   <si>
     <t>张彩发</t>
@@ -1254,7 +1249,7 @@
     <t>文清次子，生于一九一八年。</t>
   </si>
   <si>
-    <t>婚配蔡二妹生于一九一九年，卒于二〇〇九年十一月二十三日，享年九十岁，葬营盘包包，生子二：昭德、昭富。</t>
+    <t>蔡二妹生于一九一九年，卒于二〇〇九年十一月二十三日，享年九十岁，葬营盘包包，生子二：昭德、昭富。</t>
   </si>
   <si>
     <t>张彩贵</t>
@@ -1269,7 +1264,7 @@
     <t>文兰长子，生期不详，住水城张家丫口（下同），卒期不详，葬双水井。</t>
   </si>
   <si>
-    <t>婚配何氏生卒期不详，葬大黑地，生子一：昭选。</t>
+    <t>何氏生卒期不详，葬大黑地，生子一：昭选。</t>
   </si>
   <si>
     <t>张彩忠</t>
@@ -1278,13 +1273,13 @@
     <t>文兰次子，生卒期不详，葬董地杉树林。</t>
   </si>
   <si>
-    <t>婚配何氏生卒期不详，葬双水井，生子三：昭祥、昭礼、昭信。</t>
+    <t>何氏生卒期不详，葬双水井，生子三：昭祥、昭礼、昭信。</t>
   </si>
   <si>
     <t>文兰三子，生于一九一四年一月七日，卒于一九八六年九月二日，享年七十二岁，葬石桥杉林。</t>
   </si>
   <si>
-    <t>婚配王玉芝生于一九一九年七月十二日，在水城干河沟生长人氏，卒期不详，葬猴场，生子三：昭宝、昭荣、昭应。</t>
+    <t>王玉芝生于一九一九年七月十二日，在水城干河沟生长人氏，卒期不详，葬猴场，生子三：昭宝、昭荣、昭应。</t>
   </si>
   <si>
     <t>张彩庆</t>
@@ -1293,7 +1288,7 @@
     <t>文兰四子，生期不详，住水城滥坝福集厂。</t>
   </si>
   <si>
-    <t>婚配杨氏生子一：昭顺。</t>
+    <t>杨氏生子一：昭顺。</t>
   </si>
   <si>
     <t>张彩和</t>
@@ -1302,7 +1297,7 @@
     <t>文明长子。</t>
   </si>
   <si>
-    <t>婚配周氏生子一：昭全。继配李氏生子一：昭祥。</t>
+    <t>周氏生子一：昭全。李氏生子一：昭祥。</t>
   </si>
   <si>
     <t>张彩云</t>
@@ -1311,7 +1306,7 @@
     <t>文有长子，生卒期不详，葬老屋基。</t>
   </si>
   <si>
-    <t>婚配李氏生卒期不详，葬三屯地，生子一：昭阳。</t>
+    <t>李氏生卒期不详，葬三屯地，生子一：昭阳。</t>
   </si>
   <si>
     <t>炳忠长女，名字不详，生期不详，适李姓。</t>
@@ -1323,7 +1318,7 @@
     <t>炳忠长子，生于一九一五年四月四日，卒于一九九四年，葬于老鹰山王家大坡。</t>
   </si>
   <si>
-    <t>婚配高少珍生于一九二二年，卒于一九八二年五月七日，葬于老鹰山大龙坡。继配杨国珍生于一九一五年，卒于一九八五年，葬于老鹰山何家弯子，在王家生子一：长华；在张家生子三：兴全、兴明、昭礼，生女二：桥珍、兴珍。</t>
+    <t>高少珍生于一九二二年，卒于一九八二年五月七日，葬于老鹰山大龙坡。杨国珍生于一九一五年，卒于一九八五年，葬于老鹰山何家弯子，在王家生子一：长华；在张家生子三：兴全、兴明、昭礼，生女二：桥珍、兴珍。</t>
   </si>
   <si>
     <t>张老鹰</t>
@@ -1368,7 +1363,7 @@
     <t>顺清长子，生于一九一一年，卒于一九三六年，葬于水城老鹰山长坡。</t>
   </si>
   <si>
-    <t>婚配左氏生女一：长芝。</t>
+    <t>左氏生女一：长芝。</t>
   </si>
   <si>
     <t>张开林</t>
@@ -1377,7 +1372,7 @@
     <t>顺清次子，生于一九一五年，卒于一九四三年，葬于水城老鹰山丫口。</t>
   </si>
   <si>
-    <t>婚配田氏生女一：翠英。</t>
+    <t>田氏生女一：翠英。</t>
   </si>
   <si>
     <t>张开文</t>
@@ -1386,13 +1381,13 @@
     <t>顺清三子，生于一九二三年七月十二日，卒于一九九二年七月十三日，葬于水城老鹰山坡坡脚。</t>
   </si>
   <si>
-    <t>婚配云祥珍生于一九二七年五月二十八日，卒于二〇一二年六月二十四日，葬于水城老鹰山坡坡脚。生子四：昭义、昭贵、昭庆、昭举，生女一：昭群。继配李秀英一九二八年十一月二十一日生于纳雍县以角姆嘎，生子二：昭宣、昭军，生女三：昭英、昭会、昭毕。</t>
+    <t>云祥珍生于一九二七年五月二十八日，卒于二〇一二年六月二十四日，葬于水城老鹰山坡坡脚。生子四：昭义、昭贵、昭庆、昭举，生女一：昭群。李秀英一九二八年十一月二十一日生于纳雍县以角姆嘎，生子二：昭宣、昭军，生女三：昭英、昭会、昭毕。</t>
   </si>
   <si>
     <t>文才长子。</t>
   </si>
   <si>
-    <t>婚配余氏生子一：昭华。</t>
+    <t>余氏生子一：昭华。</t>
   </si>
   <si>
     <t>张彩凤</t>
@@ -1407,7 +1402,7 @@
     <t>文举长子。</t>
   </si>
   <si>
-    <t>婚配陈士英生子三：昭贵、昭贤、昭勇。</t>
+    <t>陈士英生子三：昭贵、昭贤、昭勇。</t>
   </si>
   <si>
     <t>张彩祥</t>
@@ -1416,7 +1411,7 @@
     <t>文举次子。</t>
   </si>
   <si>
-    <t>婚配王景英生子三：昭华、昭有、昭举。</t>
+    <t>王景英生子三：昭华、昭有、昭举。</t>
   </si>
   <si>
     <t>张彩高</t>
@@ -1428,7 +1423,7 @@
     <t>文忠长子，生于一九四一年十月二十三日。</t>
   </si>
   <si>
-    <t>婚配何氏生于一九四一年七月，生子二：昭辉、昭兵。</t>
+    <t>何氏生于一九四一年七月，生子二：昭辉、昭兵。</t>
   </si>
   <si>
     <t>张彩富</t>
@@ -1449,7 +1444,7 @@
     <t>文炳长子，生于一九二二年。</t>
   </si>
   <si>
-    <t>婚配陈氏生于一九二四年，生子一：昭富。</t>
+    <t>陈氏生于一九二四年，生子一：昭富。</t>
   </si>
   <si>
     <t>张开学</t>
@@ -1458,19 +1453,19 @@
     <t>文炳次子，生于一九二三年。</t>
   </si>
   <si>
-    <t>婚配李氏生于一九〇六年，卒期不详，葬六枝桥子山，申山寅向，生子一：昭亮。</t>
+    <t>李氏生于一九〇六年，卒期不详，葬六枝桥子山，申山寅向，生子一：昭亮。</t>
   </si>
   <si>
     <t>文炳三子，生于一九二九年，卒于一九八三年九月，时年五十四岁，葬六枝干嘛鱼塘，巽山乾向。</t>
   </si>
   <si>
-    <t>婚配沙氏生子三：昭明、昭云、昭福。</t>
+    <t>沙氏生子三：昭明、昭云、昭福。</t>
   </si>
   <si>
     <t>文炳四子，生于一九三一年。</t>
   </si>
   <si>
-    <t>婚配伍氏生于一九三〇年，生子二：昭全、昭林。</t>
+    <t>伍氏生于一九三〇年，生子二：昭全、昭林。</t>
   </si>
   <si>
     <t>张志舟</t>
@@ -1479,19 +1474,19 @@
     <t>文海长子，生于一九二五年。</t>
   </si>
   <si>
-    <t>婚配熊氏生于一九二六年，生子三：昭华、昭良、昭辉。</t>
+    <t>熊氏生于一九二六年，生子三：昭华、昭良、昭辉。</t>
   </si>
   <si>
     <t>文海次子，生于一九二七年。</t>
   </si>
   <si>
-    <t>婚配罗氏生于一九三八年，生子三：昭忠、昭达、昭兴。</t>
+    <t>罗氏生于一九三八年，生子三：昭忠、昭达、昭兴。</t>
   </si>
   <si>
     <t>少武长子，生于一九四三年。</t>
   </si>
   <si>
-    <t>婚配冯氏生于一九四五年，生子四：昭国、昭阳、寸发、小英。</t>
+    <t>冯氏生于一九四五年，生子四：昭国、昭阳、寸发、小英。</t>
   </si>
   <si>
     <t>张润安</t>
@@ -1500,7 +1495,7 @@
     <t>小九长子，生于一八九二年，卒期不详，葬田坎脚，坤山艮向。</t>
   </si>
   <si>
-    <t>婚配李氏生于一八九〇年，卒期不详，葬上官，卯山酉向，生子一：昭荣。</t>
+    <t>李氏生于一八九〇年，卒期不详，葬上官，卯山酉向，生子一：昭荣。</t>
   </si>
   <si>
     <t>张元先</t>
@@ -1515,7 +1510,7 @@
     <t>文志长子，生于一九五二年五月。</t>
   </si>
   <si>
-    <t>婚配李氏生子一：昭勇。</t>
+    <t>李氏生子一：昭勇。</t>
   </si>
   <si>
     <t>张彩权</t>
@@ -1524,13 +1519,13 @@
     <t>文志次子，生于一九五四年四月。</t>
   </si>
   <si>
-    <t>婚配谢氏生子三：张平、昭林、昭红。</t>
+    <t>谢氏生子三：张平、昭林、昭红。</t>
   </si>
   <si>
     <t>文志三子，生于一九五八年三月。</t>
   </si>
   <si>
-    <t>婚配谢氏生子二：张海、昭江。</t>
+    <t>谢氏生子二：张海、昭江。</t>
   </si>
   <si>
     <t>张彩奎</t>
@@ -1539,13 +1534,13 @@
     <t>文志四子。</t>
   </si>
   <si>
-    <t>婚配万氏生子二：昭松、昭涛。</t>
+    <t>万氏生子二：昭松、昭涛。</t>
   </si>
   <si>
     <t>文相长子，生于一九四七年七月。</t>
   </si>
   <si>
-    <t>婚配罗氏生子二：昭虎、昭龙。</t>
+    <t>罗氏生子二：昭虎、昭龙。</t>
   </si>
   <si>
     <t>张彩学</t>
@@ -1554,13 +1549,13 @@
     <t>文达长子，生于一九五四年十月。</t>
   </si>
   <si>
-    <t>婚配杨氏生子二：昭敏、昭权。</t>
+    <t>杨氏生子二：昭敏、昭权。</t>
   </si>
   <si>
     <t>文达次子，生于一九五七年十月。</t>
   </si>
   <si>
-    <t>婚配付氏生子二：昭祥、昭友。</t>
+    <t>付氏生子二：昭祥、昭友。</t>
   </si>
   <si>
     <t>张学</t>
@@ -1569,7 +1564,7 @@
     <t>文达三子，生于一九六〇年七月，在六枝埃冲生长人氏，住六枝梭戛平寨（下同）。</t>
   </si>
   <si>
-    <t>婚配李氏生子二：昭发、昭云。</t>
+    <t>李氏生子二：昭发、昭云。</t>
   </si>
   <si>
     <t>张彩中</t>
@@ -1578,7 +1573,7 @@
     <t>文达四子，生于一九六四年三月，住六枝埃冲。</t>
   </si>
   <si>
-    <t>婚配王氏生子一：小二。</t>
+    <t>王氏生子一：小二。</t>
   </si>
   <si>
     <t>张彩进</t>
@@ -1587,7 +1582,7 @@
     <t>文达五子，生于一九六八年十月，住六枝埃冲。</t>
   </si>
   <si>
-    <t>婚配吴氏生子一：昭林。</t>
+    <t>吴氏生子一：昭林。</t>
   </si>
   <si>
     <t>张坤</t>
@@ -1614,7 +1609,7 @@
     <t>文先长子，生于一九五八年八月。</t>
   </si>
   <si>
-    <t>婚配周氏生子二：昭红、昭远。</t>
+    <t>周氏生子二：昭红、昭远。</t>
   </si>
   <si>
     <t>张彩伦</t>
@@ -1623,7 +1618,7 @@
     <t>文先次子，生于一九六五年九月。</t>
   </si>
   <si>
-    <t>婚配安氏生子一：昭虎。</t>
+    <t>安氏生子一：昭虎。</t>
   </si>
   <si>
     <t>张彩贤</t>
@@ -1632,13 +1627,13 @@
     <t>文先三子，生于一九六八年十二月。</t>
   </si>
   <si>
-    <t>婚配陆氏生子一：昭款。</t>
+    <t>陆氏生子一：昭款。</t>
   </si>
   <si>
     <t>文才长子，生于一九六六年六月。</t>
   </si>
   <si>
-    <t>婚配包氏生子一：昭华。</t>
+    <t>包氏生子一：昭华。</t>
   </si>
   <si>
     <t>张彩友</t>
@@ -1659,7 +1654,7 @@
     <t>文权次子，生于一九七九年十一月。</t>
   </si>
   <si>
-    <t>婚配氏生子一：昭权。</t>
+    <t>氏生子一：昭权。</t>
   </si>
   <si>
     <t>张昭明</t>
@@ -1668,7 +1663,7 @@
     <t>彩益长子，生于一九五七年八月九日，在纳雍猫场张家丫口生长人氏，住纳雍阳长镇，中专文化，教师。</t>
   </si>
   <si>
-    <t>婚配杨正香生于一九五九年十一月六日，在比德生长人氏，生子二：云红、云青，生女一：云云。</t>
+    <t>杨正香生于一九五九年十一月六日，在比德生长人氏，生子二：云红、云青，生女一：云云。</t>
   </si>
   <si>
     <t>廿一世</t>
@@ -1680,7 +1675,7 @@
     <t>彩益次子，生于辛丑年四月十四日，在纳雍阳长镇生长人氏，住纳雍阳长镇丰家丫口。</t>
   </si>
   <si>
-    <t>婚配郭正秀生于癸丑年八月三日，在新房乡生长人氏，生子二：进、弛，生女一：云飞。</t>
+    <t>郭正秀生于癸丑年八月三日，在新房乡生长人氏，生子二：进、弛，生女一：云飞。</t>
   </si>
   <si>
     <t>张旭</t>
@@ -1689,7 +1684,7 @@
     <t>彩益三子，生于一九六六年八月四日，在新房乡生长人氏，住贵阳。</t>
   </si>
   <si>
-    <t>婚配安永飞生于一九六七年五月二十一日，在新房乡生长人氏，生子一：张坤。</t>
+    <t>安永飞生于一九六七年五月二十一日，在新房乡生长人氏，生子一：张坤。</t>
   </si>
   <si>
     <t>张鹏</t>
@@ -1698,7 +1693,7 @@
     <t>彩益四子，生于一九六九年十月一日，住纳雍阳长镇丰家丫口。</t>
   </si>
   <si>
-    <t>婚配阮仕兰生于一九七一年八月二十五日，在阳长镇生长人氏，生子一：张维，生女二：张菊、张雪。</t>
+    <t>阮仕兰生于一九七一年八月二十五日，在阳长镇生长人氏，生子一：张维，生女二：张菊、张雪。</t>
   </si>
   <si>
     <t>张程</t>
@@ -1707,7 +1702,7 @@
     <t>彩益五子，生于一九七二年十二月四日，住纳雍阳长镇丰家丫口。</t>
   </si>
   <si>
-    <t>婚配李琴期不详，在新房乡生长人氏，生子二：张杰、张余，生女一：张羽。</t>
+    <t>李琴期不详，在新房乡生长人氏，生子二：张杰、张余，生女一：张羽。</t>
   </si>
   <si>
     <t>张龙</t>
@@ -1716,7 +1711,7 @@
     <t>彩益六子，生于一九七六年一月，住纳雍阳长镇丰家丫口。</t>
   </si>
   <si>
-    <t>婚配李会期不详，在阳长镇生长人氏，生子一：云宵，生女二：云艳、云欣。</t>
+    <t>李会期不详，在阳长镇生长人氏，生子一：云宵，生女二：云艳、云欣。</t>
   </si>
   <si>
     <t>张昭贵</t>
@@ -1734,7 +1729,7 @@
     <t>彩文长子。</t>
   </si>
   <si>
-    <t>婚配胡氏</t>
+    <t>胡氏</t>
   </si>
   <si>
     <t>张昭平</t>
@@ -1743,7 +1738,7 @@
     <t>彩文次子。</t>
   </si>
   <si>
-    <t>婚配杨氏子三：云贵、云奇、云举。</t>
+    <t>杨氏子三：云贵、云奇、云举。</t>
   </si>
   <si>
     <t>张昭全</t>
@@ -1752,7 +1747,7 @@
     <t>彩文三子。</t>
   </si>
   <si>
-    <t>婚配氏生子二：云华、云海。</t>
+    <t>氏生子二：云华、云海。</t>
   </si>
   <si>
     <t>张昭珍</t>
@@ -1779,7 +1774,7 @@
     <t>启荣长子，生于一九四六年七月十二日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配王文飞生于一九四八年八月十五日，卒于二〇〇六年十二月二十七日，享年六十岁，葬望天冲，生子六：云军、云学、云文、云忠、云华、云伦，生女一：云珍。</t>
+    <t>王文飞生于一九四八年八月十五日，卒于二〇〇六年十二月二十七日，享年六十岁，葬望天冲，生子六：云军、云学、云文、云忠、云华、云伦，生女一：云珍。</t>
   </si>
   <si>
     <t>张昭贤</t>
@@ -1788,7 +1783,7 @@
     <t>启荣次子，生于一九四八年四月十二日，住水城老鹰山白岩脚，卒于二〇〇八年四月十三日，享年六十岁，葬牛毛草包包。</t>
   </si>
   <si>
-    <t>婚配赵庆群生于丙戌年上十月二十四日，生子三：云辉、张云、云平，生女三：张燕、张敏、云琴。</t>
+    <t>赵庆群生于丙戌年上十月二十四日，生子三：云辉、张云、云平，生女三：张燕、张敏、云琴。</t>
   </si>
   <si>
     <t>张昭兰</t>
@@ -1818,7 +1813,7 @@
     <t>启华长子。</t>
   </si>
   <si>
-    <t>婚配叶贤飞生于一九四八年八月二日，生子三：云海、云祥、云龙，生女二：云群、云飞。</t>
+    <t>叶贤飞生于一九四八年八月二日，生子三：云海、云祥、云龙，生女二：云群、云飞。</t>
   </si>
   <si>
     <t>张昭学</t>
@@ -1827,7 +1822,7 @@
     <t>启华次子。</t>
   </si>
   <si>
-    <t>婚配陆启英生于一九五三年七月十八日，生子三：云兵、云凤、军，生女二：云书、云兰。</t>
+    <t>陆启英生于一九五三年七月十八日，生子三：云兵、云凤、军，生女二：云书、云兰。</t>
   </si>
   <si>
     <t>张昭群</t>
@@ -1851,7 +1846,7 @@
     <t>彩荣长子，生于乙未年一月十四日，卒于庚辰年三月十五日，葬余家老屋基。</t>
   </si>
   <si>
-    <t>婚配珍庆兰生于一九五三年七月十日，生子二：云林、云举。</t>
+    <t>珍庆兰生于一九五三年七月十日，生子二：云林、云举。</t>
   </si>
   <si>
     <t>张昭伦</t>
@@ -1860,19 +1855,19 @@
     <t>彩荣次子，生于一九六六年九月十三日，卒期不详，葬岩洞坡。</t>
   </si>
   <si>
-    <t>婚配李五秀生于一九六七年十一月十一日，生子一：张勇，生女一：燕子。</t>
+    <t>李五秀生于一九六七年十一月十一日，生子一：张勇，生女一：燕子。</t>
   </si>
   <si>
     <t>彩华长子，生于一九三七年。</t>
   </si>
   <si>
-    <t>婚配李广珍生于一九五七年五月二日，生子一：云江。</t>
+    <t>李广珍生于一九五七年五月二日，生子一：云江。</t>
   </si>
   <si>
     <t>彩华次子，生于一九四二年三月八日。</t>
   </si>
   <si>
-    <t>婚配李龙珍生于一和四六年四月十四日，生子一：云松，</t>
+    <t>李龙珍生于一和四六年四月十四日，生子一：云松，</t>
   </si>
   <si>
     <t>张昭荣</t>
@@ -1881,13 +1876,13 @@
     <t>彩华三子，生于一九五三年十一月十六日。</t>
   </si>
   <si>
-    <t>婚配郑应芳生于一九五六年一月十四日，生子一：云海。</t>
+    <t>郑应芳生于一九五六年一月十四日，生子一：云海。</t>
   </si>
   <si>
     <t>彩华四子，生于一九五五年五月十日。</t>
   </si>
   <si>
-    <t>婚配彭绍珍生于一九五七年十二月二日，生子一：云祥，生女二：云翠、云会。</t>
+    <t>彭绍珍生于一九五七年十二月二日，生子一：云祥，生女二：云翠、云会。</t>
   </si>
   <si>
     <t>张昭元</t>
@@ -1896,7 +1891,7 @@
     <t>彩华五子，生于一九六三年十一月六日。</t>
   </si>
   <si>
-    <t>婚配杨官秀生于一九六五年三月七日，生子一：云胜。</t>
+    <t>杨官秀生于一九六五年三月七日，生子一：云胜。</t>
   </si>
   <si>
     <t>张昭德</t>
@@ -1905,7 +1900,7 @@
     <t>彩发长子，生于一九五一年三月二十八日。</t>
   </si>
   <si>
-    <t>婚配代笔书生于一九五六年九月六日，生子五：云富、云龙、云文、云刚、云红。</t>
+    <t>代笔书生于一九五六年九月六日，生子五：云富、云龙、云文、云刚、云红。</t>
   </si>
   <si>
     <t>张昭富</t>
@@ -1914,7 +1909,7 @@
     <t>彩发次子，生于一九五五年十月二十一日。</t>
   </si>
   <si>
-    <t>婚配代云香生于一九五七年十月十七日，生子一：云军。</t>
+    <t>代云香生于一九五七年十月十七日，生子一：云军。</t>
   </si>
   <si>
     <t>张昭选</t>
@@ -1923,7 +1918,7 @@
     <t>彩洪长子，生卒期不详，葬大洞。</t>
   </si>
   <si>
-    <t>婚配何氏生子二：云方、云龙。</t>
+    <t>何氏生子二：云方、云龙。</t>
   </si>
   <si>
     <t>张昭祥</t>
@@ -1932,7 +1927,7 @@
     <t>彩忠长子，生卒期不详，葬董地杉树林。</t>
   </si>
   <si>
-    <t>婚配何氏生卒期不详，葬猪市包包，生子六：云春、云德、云专、云明、云军、云超。</t>
+    <t>何氏生卒期不详，葬猪市包包，生子六：云春、云德、云专、云明、云军、云超。</t>
   </si>
   <si>
     <t>张昭礼</t>
@@ -1941,7 +1936,7 @@
     <t>彩忠次子，生于一九四八年十二月十九日。</t>
   </si>
   <si>
-    <t>婚配王氏生于一九四八年九月七日，生子三：云发、云林、云华。</t>
+    <t>王氏生于一九四八年九月七日，生子三：云发、云林、云华。</t>
   </si>
   <si>
     <t>张昭信</t>
@@ -1950,7 +1945,7 @@
     <t>彩忠三子，生卒期不详，葬比德郭大土。</t>
   </si>
   <si>
-    <t>婚配李氏生子五：云河、云江、云汉、云松、云宁。</t>
+    <t>李氏生子五：云河、云江、云汉、云松、云宁。</t>
   </si>
   <si>
     <t>张昭宝</t>
@@ -1962,7 +1957,7 @@
     <t>彩华次子，生于一九四八年五月十九日，住水城滥坝，卒于一九七八年十月二十日，葬猪市丫口。</t>
   </si>
   <si>
-    <t>婚配徐礼英生于一九四九年一月四日，在水城滥坝生长人氏，生子二：云平、云友。</t>
+    <t>徐礼英生于一九四九年一月四日，在水城滥坝生长人氏，生子二：云平、云友。</t>
   </si>
   <si>
     <t>张昭应</t>
@@ -1971,7 +1966,7 @@
     <t>彩华三子，生期不详，住水城滥坝福集厂。</t>
   </si>
   <si>
-    <t>婚配邓氏生子一：云伦。</t>
+    <t>邓氏生子一：云伦。</t>
   </si>
   <si>
     <t>张昭顺</t>
@@ -1980,19 +1975,19 @@
     <t>彩庆长子，生期不详，住水城滥坝福集厂。</t>
   </si>
   <si>
-    <t>婚配谭氏生子二：云付、云桃。</t>
+    <t>谭氏生子二：云付、云桃。</t>
   </si>
   <si>
     <t>彩和长子，生于一九六三年十一月三日，卒于二〇〇一年二月二十三日，葬化乐何家寨。</t>
   </si>
   <si>
-    <t>婚配郭桂珍生于一九六五年三月二十三日，生子二：云建、云杰。</t>
+    <t>郭桂珍生于一九六五年三月二十三日，生子二：云建、云杰。</t>
   </si>
   <si>
     <t>彩和次子，生于一九六七年。</t>
   </si>
   <si>
-    <t>婚配王长珍生于一九六七年，生子二：张江、张巧。</t>
+    <t>王长珍生于一九六七年，生子二：张江、张巧。</t>
   </si>
   <si>
     <t>彩和次子。</t>
@@ -2004,7 +1999,7 @@
     <t>彩云长子，生于一九三一年五月六日，卒于一九九〇年十一月三日，时年五十九岁，葬址不详。</t>
   </si>
   <si>
-    <t>婚配刘继兰生子三：荣锋、荣耀、张韬。</t>
+    <t>刘继兰生子三：荣锋、荣耀、张韬。</t>
   </si>
   <si>
     <t>张桥珍</t>
@@ -2025,7 +2020,7 @@
     <t>银成长子，生于一九三九年三月四日巳时，卒于一九九八年十一月八日，葬于水城老鹰山王家大坡。</t>
   </si>
   <si>
-    <t>婚配彭仕英一九四二年十月十一日戌时生于水城时丰里六甲通寨吴家大圆子，生子五：云发、云学、云祥、张云、云奎，生女二：云兰、云美。</t>
+    <t>彭仕英一九四二年十月十一日戌时生于水城时丰里六甲通寨吴家大圆子，生子五：云发、云学、云祥、张云、云奎，生女二：云兰、云美。</t>
   </si>
   <si>
     <t>张兴明</t>
@@ -2034,13 +2029,13 @@
     <t>银成次子，生于一九四八年十二月二十一日子时，卒于二〇一二年一月，葬于水城老鹰山下。</t>
   </si>
   <si>
-    <t>婚配陈德枝一九四七年二月二十八日寅时生于水城县滥坝镇发齐村浑塘组，生子三：云华、张军、张强，生女一：云梅。</t>
+    <t>陈德枝一九四七年二月二十八日寅时生于水城县滥坝镇发齐村浑塘组，生子三：云华、张军、张强，生女一：云梅。</t>
   </si>
   <si>
     <t>银成三子，生于一九五一年十一月四日，卒于二〇一〇年九月十八日，葬于水城滥坝镇发齐村青杆林</t>
   </si>
   <si>
-    <t>婚配陈仕毕一九五一年八月十九日生于水城县滥坝镇发齐村，生子一：张勇，生女五：云芬、云霞、云艳、云秀、张敏。</t>
+    <t>陈仕毕一九五一年八月十九日生于水城县滥坝镇发齐村，生子一：张勇，生女五：云芬、云霞、云艳、云秀、张敏。</t>
   </si>
   <si>
     <t>张长芝</t>
@@ -2079,13 +2074,13 @@
     <t>开文长子，生于一九五二年三月十二日，卒于一九九五年七月四日，葬于水城老鹰山长坡。</t>
   </si>
   <si>
-    <t>婚配谭毕群生于一九四九年一月五日，卒于二〇〇四年二月三十日，葬于水城老鹰山坡坡脚，生子二：云春、云斈，生女二：春香、春兰。</t>
+    <t>谭毕群生于一九四九年一月五日，卒于二〇〇四年二月三十日，葬于水城老鹰山坡坡脚，生子二：云春、云斈，生女二：春香、春兰。</t>
   </si>
   <si>
     <t>开文次子，生于一九五六年十一月七日，卒于一九九四年四月十二日，葬于水城老鹰山坡坡脚。</t>
   </si>
   <si>
-    <t>婚配杨忠英一九五九年五月十九日生于水城县董地乡中坝村，生子一：云福。生女三：张晴、张敏、张梅。</t>
+    <t>杨忠英一九五九年五月十九日生于水城县董地乡中坝村，生子一：云福。生女三：张晴、张敏、张梅。</t>
   </si>
   <si>
     <t>张昭宣</t>
@@ -2100,7 +2095,7 @@
     <t>开文四子，生于一九六五年十一月十日，卒于一九九六年十一月二十九日，葬于水城老鹰山张家大地。</t>
   </si>
   <si>
-    <t>婚配李守莲一九六五年十月二十八日，生女三：秋萍、春雪、笑芳。氏生子：云。</t>
+    <t>李守莲一九六五年十月二十八日，生女三：秋萍、春雪、笑芳。氏生子：云。</t>
   </si>
   <si>
     <t>张昭庆</t>
@@ -2109,13 +2104,13 @@
     <t>开文五子，一九六五年十一月九日生于水城县老鹰山镇木桥村水营组。</t>
   </si>
   <si>
-    <t>婚配向仕芬一九六七年四月二十七日生于水城县老鹰山镇木桥村大平子组，生子二：云富、云评，生女一：张玉。</t>
+    <t>向仕芬一九六七年四月二十七日生于水城县老鹰山镇木桥村大平子组，生子二：云富、云评，生女一：张玉。</t>
   </si>
   <si>
     <t>开文六子，一九六九年二月十六日生于水城县老鹰山镇木桥村水营组。</t>
   </si>
   <si>
-    <t>婚配赵音琴一九七二年四月六日生于水城县滥坝镇发齐村，生子一：云刚，生女二：云娥、云嫦。</t>
+    <t>赵音琴一九七二年四月六日生于水城县滥坝镇发齐村，生子一：云刚，生女二：云娥、云嫦。</t>
   </si>
   <si>
     <t>张昭华</t>
@@ -2124,19 +2119,19 @@
     <t>彩洪长子。</t>
   </si>
   <si>
-    <t>婚配柳氏生子一：元政。</t>
+    <t>柳氏生子一：元政。</t>
   </si>
   <si>
     <t>彩祯长子。</t>
   </si>
   <si>
-    <t>婚配周换英生子二：云松、云彬。</t>
+    <t>周换英生子二：云松、云彬。</t>
   </si>
   <si>
     <t>彩祯次子。</t>
   </si>
   <si>
-    <t>婚配吴氏生子二：云昌、云盛。</t>
+    <t>吴氏生子二：云昌、云盛。</t>
   </si>
   <si>
     <t>张昭勇</t>
@@ -2148,7 +2143,7 @@
     <t>彩祥长子。</t>
   </si>
   <si>
-    <t>婚配周换菊生子一：云德。继配顾氏生卒期不详，葬岩脚寨子上寨，生子四：家荣、家华、家富、家贵。</t>
+    <t>周换菊生子一：云德。顾氏生卒期不详，葬岩脚寨子上寨，生子四：家荣、家华、家富、家贵。</t>
   </si>
   <si>
     <t>张昭辉</t>
@@ -2157,7 +2152,7 @@
     <t>彩祥长子，生于一九七五年十一月十五日。</t>
   </si>
   <si>
-    <t>婚配吴氏生于一九七五年十一月十日，生子二：云江、云发</t>
+    <t>吴氏生于一九七五年十一月十日，生子二：云江、云发</t>
   </si>
   <si>
     <t>张昭兵</t>
@@ -2169,7 +2164,7 @@
     <t>彩周长子，生于一九五九年。</t>
   </si>
   <si>
-    <t>婚配杨氏生于一九六八年，生子一：云昌。</t>
+    <t>杨氏生于一九六八年，生子一：云昌。</t>
   </si>
   <si>
     <t>张昭亮</t>
@@ -2178,19 +2173,19 @@
     <t>开学长子，生于一九五一年。</t>
   </si>
   <si>
-    <t>婚配代兴珍生于一九五二年，生子一：云品。</t>
+    <t>代兴珍生于一九五二年，生子一：云品。</t>
   </si>
   <si>
     <t>彩高长子，生于一九六三年。</t>
   </si>
   <si>
-    <t>婚配黄氏生于一九七〇年，生子二：八斤、全龙。</t>
+    <t>黄氏生于一九七〇年，生子二：八斤、全龙。</t>
   </si>
   <si>
     <t>彩高次子，生于一九六五年。</t>
   </si>
   <si>
-    <t>婚配严氏生于一九七九年。</t>
+    <t>严氏生于一九七九年。</t>
   </si>
   <si>
     <t>张昭福</t>
@@ -2199,7 +2194,7 @@
     <t>彩高三子，生于一九六八年。</t>
   </si>
   <si>
-    <t>婚配王氏生于一九七六年，生子二：云刚、云祥。</t>
+    <t>王氏生于一九七六年，生子二：云刚、云祥。</t>
   </si>
   <si>
     <t>张云刚</t>
@@ -2217,25 +2212,25 @@
     <t>彩云长子，生于一九五一年。</t>
   </si>
   <si>
-    <t>婚配沙氏生于一九五二年，生子一：云林。</t>
+    <t>沙氏生于一九五二年，生子一：云林。</t>
   </si>
   <si>
     <t>志舟长子，生于一九四六年。</t>
   </si>
   <si>
-    <t>婚配唐氏生于一九四八年，生子三：云明、张琪、云国。</t>
+    <t>唐氏生于一九四八年，生子三：云明、张琪、云国。</t>
   </si>
   <si>
     <t>志舟次子，生于一九五〇年，中专文化，校长。</t>
   </si>
   <si>
-    <t>婚配李氏生于一九五三年，生子二：云斌、云军。</t>
+    <t>李氏生于一九五三年，生子二：云斌、云军。</t>
   </si>
   <si>
     <t>志舟三子，生于一九六六年，在六枝特区牛场上寨生长人氏。</t>
   </si>
   <si>
-    <t>婚配李氏生于一九六四年，生子二：张朋、云峰。</t>
+    <t>李氏生于一九六四年，生子二：张朋、云峰。</t>
   </si>
   <si>
     <t>张昭忠</t>
@@ -2244,7 +2239,7 @@
     <t>彩祥长子，生于一九五五年。</t>
   </si>
   <si>
-    <t>婚配石氏生于一九六〇年，生子一：云江。</t>
+    <t>石氏生于一九六〇年，生子一：云江。</t>
   </si>
   <si>
     <t>张昭达</t>
@@ -2253,7 +2248,7 @@
     <t>彩祥次子，生于一九六四年。</t>
   </si>
   <si>
-    <t>婚配李氏生于一九六七年，生子二：云松、九法。</t>
+    <t>李氏生于一九六七年，生子二：云松、九法。</t>
   </si>
   <si>
     <t>张昭兴</t>
@@ -2262,7 +2257,7 @@
     <t>彩祥三子，生于一九六六年。</t>
   </si>
   <si>
-    <t>婚配李氏生于一九六六年，生子一：云洪。</t>
+    <t>李氏生于一九六六年，生子一：云洪。</t>
   </si>
   <si>
     <t>张昭国</t>
@@ -2271,13 +2266,13 @@
     <t>彩文长子，生于一九六四年。</t>
   </si>
   <si>
-    <t>婚配刘氏生于一九六四年，生子二：云勇、云凯。</t>
+    <t>刘氏生于一九六四年，生子二：云勇、云凯。</t>
   </si>
   <si>
     <t>彩文次子，生于一九七二年。</t>
   </si>
   <si>
-    <t>婚配王氏生于一九八一年，生子一：老大。</t>
+    <t>王氏生于一九八一年，生子一：老大。</t>
   </si>
   <si>
     <t>张寸发</t>
@@ -2295,7 +2290,7 @@
     <t>润安长子，生于一九四〇年。</t>
   </si>
   <si>
-    <t>婚配郝氏生于一九四六年，生子二：云全、云朝。</t>
+    <t>郝氏生于一九四六年，生子二：云全、云朝。</t>
   </si>
   <si>
     <t>彩明长子，生于一九七三年一月。</t>
@@ -2304,7 +2299,7 @@
     <t>彩权长子，生于一九七六年三月。</t>
   </si>
   <si>
-    <t>婚配李氏</t>
+    <t>李氏</t>
   </si>
   <si>
     <t>彩权次子，生于一九七七年四月。</t>
@@ -2337,7 +2332,7 @@
     <t>彩荣长子，生于一九六九年七月。</t>
   </si>
   <si>
-    <t>婚配黄氏生子二：云兵、云军。</t>
+    <t>黄氏生子二：云兵、云军。</t>
   </si>
   <si>
     <t>张昭龙</t>
@@ -2346,7 +2341,7 @@
     <t>彩荣次子，生于一九七一年十月。</t>
   </si>
   <si>
-    <t>婚配尚氏生子二：云猛、云新。</t>
+    <t>尚氏生子二：云猛、云新。</t>
   </si>
   <si>
     <t>张昭敏</t>
@@ -2355,7 +2350,7 @@
     <t>彩学长子，生于一九七六年四月。</t>
   </si>
   <si>
-    <t>婚配龙氏生子一：云熊。</t>
+    <t>龙氏生子一：云熊。</t>
   </si>
   <si>
     <t>张昭权</t>
@@ -2364,7 +2359,7 @@
     <t>彩学次子，生于一九七八年。</t>
   </si>
   <si>
-    <t>婚配周氏生子一：云平。</t>
+    <t>周氏生子一：云平。</t>
   </si>
   <si>
     <t>彩富长子，生于一九七九年七月。</t>
@@ -2436,7 +2431,7 @@
     <t>昭明长子，生于一九八三年十二月二十三日，住纳雍阳长镇，本科文化，教师。</t>
   </si>
   <si>
-    <t>婚配钟昭琴生于一九八二年九月八日，在金沙城关生长人氏，本科文化，教师，生子一：智勇，生女一：寓虹。</t>
+    <t>钟昭琴生于一九八二年九月八日，在金沙城关生长人氏，本科文化，教师，生子一：智勇，生女一：寓虹。</t>
   </si>
   <si>
     <t>张云青</t>
@@ -2544,7 +2539,7 @@
     <t>昭全长子。</t>
   </si>
   <si>
-    <t>婚配蒋氏</t>
+    <t>蒋氏</t>
   </si>
   <si>
     <t>张云海</t>
@@ -2565,7 +2560,7 @@
     <t>昭全长子，生于一九六三年六月十九日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配罗英于一九六三年二月六日，生子一：张伟，生女三：汉艳、汉珍、汉菲。</t>
+    <t>罗英于一九六三年二月六日，生子一：张伟，生女三：汉艳、汉珍、汉菲。</t>
   </si>
   <si>
     <t>张云学</t>
@@ -2574,7 +2569,7 @@
     <t>昭全次子，生于一九六五年一月，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配刘志凤生于一九六六年二月，生子一：汉发，生女二：汉英、汉琴。</t>
+    <t>刘志凤生于一九六六年二月，生子一：汉发，生女二：汉英、汉琴。</t>
   </si>
   <si>
     <t>张云文</t>
@@ -2583,7 +2578,7 @@
     <t>昭全三子，生于一九七二年二月二十一日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配李加兰生于一九七二年一月二十九日，生子一：汉静。</t>
+    <t>李加兰生于一九七二年一月二十九日，生子一：汉静。</t>
   </si>
   <si>
     <t>张云忠</t>
@@ -2592,13 +2587,13 @@
     <t>昭全四子，生于一九七三年十二月二十七日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配胡林碧生于一九七六年七月六日，生子一：汉勇，生女一：汉方。</t>
+    <t>胡林碧生于一九七六年七月六日，生子一：汉勇，生女一：汉方。</t>
   </si>
   <si>
     <t>昭全五子，生于一九七五年十一月八日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配陈琴于一九八四年一月十日，生子一：张杰，生女一：汉桂。</t>
+    <t>陈琴于一九八四年一月十日，生子一：张杰，生女一：汉桂。</t>
   </si>
   <si>
     <t>张云伦</t>
@@ -2607,7 +2602,7 @@
     <t>昭全六子，生于一九七八年五月五日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配赵泽慧生于一九七五年十一月九日，生女二：汉维、汉娟。</t>
+    <t>赵泽慧生于一九七五年十一月九日，生女二：汉维、汉娟。</t>
   </si>
   <si>
     <t>张燕</t>
@@ -2634,7 +2629,7 @@
     <t>昭贤长子，生于壬子年五月一日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配吴祖琴生子一：汉健，生女三：汉宇、汉利、汉梦。</t>
+    <t>吴祖琴生子一：汉健，生女三：汉宇、汉利、汉梦。</t>
   </si>
   <si>
     <t>张云</t>
@@ -2643,7 +2638,7 @@
     <t>昭贤次子，生于丁巳年二月六日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配杨忠群生子一：汉刚。</t>
+    <t>杨忠群生子一：汉刚。</t>
   </si>
   <si>
     <t>张云平</t>
@@ -2652,7 +2647,7 @@
     <t>昭贤三子，生于己未年五月十六日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配严万香生子一：晋培，生女一：曼玲。</t>
+    <t>严万香生子一：晋培，生女一：曼玲。</t>
   </si>
   <si>
     <t>张云群</t>
@@ -2667,13 +2662,13 @@
     <t>昭举长子，生于一九六七年九月十五日。</t>
   </si>
   <si>
-    <t>婚配雷尚仙生子一：汉红，生女一：汉群。</t>
+    <t>雷尚仙生子一：汉红，生女一：汉群。</t>
   </si>
   <si>
     <t>昭举次子，生于一九七〇年二月六日。</t>
   </si>
   <si>
-    <t>婚配杜应兰生于一九七六年五月八日，生子二：汉林、汉平，生女二：汉琴、汉梅。</t>
+    <t>杜应兰生于一九七六年五月八日，生子二：汉林、汉平，生女二：汉琴、汉梅。</t>
   </si>
   <si>
     <t>张云龙</t>
@@ -2682,7 +2677,7 @@
     <t>昭举三子，生于一九七四年三月十三日。</t>
   </si>
   <si>
-    <t>婚配蒋常二</t>
+    <t>蒋常二</t>
   </si>
   <si>
     <t>张云书</t>
@@ -2703,7 +2698,7 @@
     <t>昭学长子，生于一九七六年十月十五日。</t>
   </si>
   <si>
-    <t>婚配严万芬生女二：汉菊、汉语。</t>
+    <t>严万芬生女二：汉菊、汉语。</t>
   </si>
   <si>
     <t>张云凤</t>
@@ -2712,7 +2707,7 @@
     <t>昭学次子。</t>
   </si>
   <si>
-    <t>婚配刘幺妹生女一：汉敏。</t>
+    <t>刘幺妹生女一：汉敏。</t>
   </si>
   <si>
     <t>张军</t>
@@ -2727,13 +2722,13 @@
     <t>昭云长子，生于一九八一年十二月二十一日。</t>
   </si>
   <si>
-    <t>婚配包燕子生于一九八一年十二月十日，生子二：汉宇、汉福。</t>
+    <t>包燕子生于一九八一年十二月十日，生子二：汉宇、汉福。</t>
   </si>
   <si>
     <t>昭云次子。</t>
   </si>
   <si>
-    <t>婚配王红霞生女一：玉婷。</t>
+    <t>王红霞生女一：玉婷。</t>
   </si>
   <si>
     <t>张燕子</t>
@@ -2754,7 +2749,7 @@
     <t>昭全长子，生于一九七八年六月二日。</t>
   </si>
   <si>
-    <t>婚配代兰生于一九七七年六月，生子二：张桃、张健，生女二：张菊、张亚。</t>
+    <t>代兰生于一九七七年六月，生子二：张桃、张健，生女二：张菊、张亚。</t>
   </si>
   <si>
     <t>张云松</t>
@@ -2763,13 +2758,13 @@
     <t>昭伦长子，生于一九八〇年八月十二日。</t>
   </si>
   <si>
-    <t>婚配余祝会生于一九八四年十一月六日，生子二：汉顺、汉应，生女一：张盼。</t>
+    <t>余祝会生于一九八四年十一月六日，生子二：汉顺、汉应，生女一：张盼。</t>
   </si>
   <si>
     <t>昭荣长子，生于一九七五年九月二十四日。</t>
   </si>
   <si>
-    <t>婚配郑从艳生于一九七三年一月三日，生子二：汉平、汉林。</t>
+    <t>郑从艳生于一九七三年一月三日，生子二：汉平、汉林。</t>
   </si>
   <si>
     <t>张云翠</t>
@@ -2799,37 +2794,37 @@
     <t>昭德长子，生于一九七四年五月二十三日。</t>
   </si>
   <si>
-    <t>婚配邱贵香生于一九七五年三月七日，生子一：汉云，生女一：汉梦。</t>
+    <t>邱贵香生于一九七五年三月七日，生子一：汉云，生女一：汉梦。</t>
   </si>
   <si>
     <t>昭德次子，生于一九七六年四月十五日。</t>
   </si>
   <si>
-    <t>婚配陈光群生于一九七七年九月六日，生子一：汉明，生女二：张娜、张月。</t>
+    <t>陈光群生于一九七七年九月六日，生子一：汉明，生女二：张娜、张月。</t>
   </si>
   <si>
     <t>昭德三子，生于一九七八年一月十一日。</t>
   </si>
   <si>
-    <t>婚配吉贵芝生于一九八四年一月十六日，生子一：汉祥，生女一：双艳。</t>
+    <t>吉贵芝生于一九八四年一月十六日，生子一：汉祥，生女一：双艳。</t>
   </si>
   <si>
     <t>昭德四子，生于一九七九年十月十一日。</t>
   </si>
   <si>
-    <t>婚配彭中艳生于一九八三年一月二十七日，生子三：汉兵、汉尧、张木。</t>
+    <t>彭中艳生于一九八三年一月二十七日，生子三：汉兵、汉尧、张木。</t>
   </si>
   <si>
     <t>昭德五子，生于一九八四年五月二十八日。</t>
   </si>
   <si>
-    <t>婚配周仓群生于一九八四年十月十一日，生子二：张欢、汉乐。</t>
+    <t>周仓群生于一九八四年十月十一日，生子二：张欢、汉乐。</t>
   </si>
   <si>
     <t>昭富长子，生于一九八二年八月十六日。</t>
   </si>
   <si>
-    <t>婚配杨孝平生于一九八四年十月十四日，生子一：汉发，生女一：张丽。</t>
+    <t>杨孝平生于一九八四年十月十四日，生子一：汉发，生女一：张丽。</t>
   </si>
   <si>
     <t>张云方</t>
@@ -2838,13 +2833,13 @@
     <t>昭选长子。</t>
   </si>
   <si>
-    <t>婚配石氏</t>
+    <t>石氏</t>
   </si>
   <si>
     <t>昭选次子。</t>
   </si>
   <si>
-    <t>婚配王氏</t>
+    <t>王氏</t>
   </si>
   <si>
     <t>张云春</t>
@@ -2853,7 +2848,7 @@
     <t>昭祥长子。</t>
   </si>
   <si>
-    <t>婚配刘氏</t>
+    <t>刘氏</t>
   </si>
   <si>
     <t>张云德</t>
@@ -2862,7 +2857,7 @@
     <t>昭祥次子。</t>
   </si>
   <si>
-    <t>婚配何氏</t>
+    <t>何氏</t>
   </si>
   <si>
     <t>张云专</t>
@@ -2880,7 +2875,7 @@
     <t>昭祥五子。</t>
   </si>
   <si>
-    <t>婚配温氏</t>
+    <t>温氏</t>
   </si>
   <si>
     <t>张云超</t>
@@ -2895,7 +2890,7 @@
     <t>昭礼长子。</t>
   </si>
   <si>
-    <t>婚配雷氏</t>
+    <t>雷氏</t>
   </si>
   <si>
     <t>昭礼次子。</t>
@@ -2919,7 +2914,7 @@
     <t>昭信三子。</t>
   </si>
   <si>
-    <t>婚配孙氏</t>
+    <t>孙氏</t>
   </si>
   <si>
     <t>昭信四子。</t>
@@ -2934,7 +2929,7 @@
     <t>昭荣长子，生于一九七四年十月二十三日，住水城滥坝。</t>
   </si>
   <si>
-    <t>婚配李菊生于一九八一年九月十一日，在水城老鹰山生长人氏，生子一：张埙。</t>
+    <t>李菊生于一九八一年九月十一日，在水城老鹰山生长人氏，生子一：张埙。</t>
   </si>
   <si>
     <t>张云友</t>
@@ -2943,7 +2938,7 @@
     <t>昭荣次子，生于一九七七年十月二十五日，住水城滥坝福集厂。</t>
   </si>
   <si>
-    <t>婚配雷九娥生于一九八三年六月二十八日，生子二：俊奇、紧毓。</t>
+    <t>雷九娥生于一九八三年六月二十八日，生子二：俊奇、紧毓。</t>
   </si>
   <si>
     <t>昭应长子，生期不详，住水城滥坝福集厂。</t>
@@ -2970,7 +2965,7 @@
     <t>昭全长子，生于一九八五年四月十六日。</t>
   </si>
   <si>
-    <t>婚配彭鲜生于一九九〇年二月三日，生子一：汉达。</t>
+    <t>彭鲜生于一九九〇年二月三日，生子一：汉达。</t>
   </si>
   <si>
     <t>张云杰</t>
@@ -2997,7 +2992,7 @@
     <t>昭阳长子，生于一九五五年十二月十八日。</t>
   </si>
   <si>
-    <t>婚配漆荣芬生于一九五五年五月二十日，生子一：汉林，生女三：张霞、张永、张丹。</t>
+    <t>漆荣芬生于一九五五年五月二十日，生子一：汉林，生女三：张霞、张永、张丹。</t>
   </si>
   <si>
     <t>张荣耀</t>
@@ -3006,7 +3001,7 @@
     <t>昭阳次子，生于一九五五年十二月十八日，在水城县化乐乡生长人氏，住水城县化乐乡猫场学校（下同）。</t>
   </si>
   <si>
-    <t>婚配杨永琴生于一九五五年七月十一日，生子一：汉文，生女一：张宇。</t>
+    <t>杨永琴生于一九五五年七月十一日，生子一：汉文，生女一：张宇。</t>
   </si>
   <si>
     <t>张韬</t>
@@ -3015,7 +3010,7 @@
     <t>昭阳三子，生于一九六五年二月十日，住水城县化乐乡，在水城县化乐乡派出所工作。</t>
   </si>
   <si>
-    <t>婚配李升慧生于一九六六年九月十一日，在水城化乐乡中心校工作，生子一：张健，生女一：张杰。</t>
+    <t>李升慧生于一九六六年九月十一日，在水城化乐乡中心校工作，生子一：张健，生女一：张杰。</t>
   </si>
   <si>
     <t>兴全长女，生于一九六二年八月二十七日午时生于水城县老鹰山镇陆家坝村陆家坝组，适徐姓。</t>
@@ -3030,25 +3025,25 @@
     <t>兴全长子，一九六五年十二月二十二日戌时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配黄志珍一九六四年八月四日子时生于水城县老鹰山镇木桥村木桥组，生子二：汉平、汉银，生女一：汉菊。</t>
+    <t>黄志珍一九六四年八月四日子时生于水城县老鹰山镇木桥村木桥组，生子二：汉平、汉银，生女一：汉菊。</t>
   </si>
   <si>
     <t>兴全次子，一九六八年四月三十日生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配彭泽芬一九六八年七月二十二日生于水城县阿戛乡，生子一：汉军，生女一：汉香。</t>
+    <t>彭泽芬一九六八年七月二十二日生于水城县阿戛乡，生子一：汉军，生女一：汉香。</t>
   </si>
   <si>
     <t>兴全三子，一九七一年五月三日巳时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配彭学艳一九六九年十二月九日丑时生于纳雍县百兴镇，生子一：汉能，生女一：汉裳。</t>
+    <t>彭学艳一九六九年十二月九日丑时生于纳雍县百兴镇，生子一：汉能，生女一：汉裳。</t>
   </si>
   <si>
     <t>兴全四子，一九七四年九月十八日子时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配陈金娥一九八一年一月十八日午时生于水城县老鹰山镇陆家坝村大桥组，生子一：张龙，生女二：张羽、张丽。</t>
+    <t>陈金娥一九八一年一月十八日午时生于水城县老鹰山镇陆家坝村大桥组，生子一：张龙，生女二：张羽、张丽。</t>
   </si>
   <si>
     <t>张云奎</t>
@@ -3057,7 +3052,7 @@
     <t>兴全五子，一九七六年六月十九日酉时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配黄志兰一九七五年十一月二十五日辰时生于水城县老鹰山镇木桥村木桥组，生子一：小桂，生女二：媛媛、蕊红。</t>
+    <t>黄志兰一九七五年十一月二十五日辰时生于水城县老鹰山镇木桥村木桥组，生子一：小桂，生女二：媛媛、蕊红。</t>
   </si>
   <si>
     <t>张云梅</t>
@@ -3069,13 +3064,13 @@
     <t>兴明长子，一九七〇年一月八日子时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配董克玉一九七四年八月二十九日丑时生于盘县盘江镇长山村，生子一：汉伟。</t>
+    <t>董克玉一九七四年八月二十九日丑时生于盘县盘江镇长山村，生子一：汉伟。</t>
   </si>
   <si>
     <t>兴明次子，一九七四年九月二十八日子时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配陈维芬一九七八年七月七日午时生于水城县老鹰山镇群河村群星组，生子一：汉德，生女一：汉秋。</t>
+    <t>陈维芬一九七八年七月七日午时生于水城县老鹰山镇群河村群星组，生子一：汉德，生女一：汉秋。</t>
   </si>
   <si>
     <t>张强</t>
@@ -3084,7 +3079,7 @@
     <t>兴明三子，一九七七年四月六日丑时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配陈琴一九七七年八月二十一日戌时生于盘县盘江镇，生子一：汉玉。</t>
+    <t>陈琴一九七七年八月二十一日戌时生于盘县盘江镇，生子一：汉玉。</t>
   </si>
   <si>
     <t>张云芬</t>
@@ -3114,7 +3109,7 @@
     <t>昭礼长子，一九八〇年三月十八日申时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配程文会一九八二年二月二十八日戌时生于水城县化乐乡猪场，生子三：汉鹏、汉镭、汉江。</t>
+    <t>程文会一九八二年二月二十八日戌时生于水城县化乐乡猪场，生子三：汉鹏、汉镭、汉江。</t>
   </si>
   <si>
     <t>张春香</t>
@@ -3132,7 +3127,7 @@
     <t>昭义长子，一九七三年十二月三日生于水城县老鹰山镇木桥村水营组。</t>
   </si>
   <si>
-    <t>婚配万开香一九七一年十一月十九日生于钟山区月照乡玉顶村关寨组，生子一：汉杰，生女二：汉菊、汉梅。</t>
+    <t>万开香一九七一年十一月十九日生于钟山区月照乡玉顶村关寨组，生子一：汉杰，生女二：汉菊、汉梅。</t>
   </si>
   <si>
     <t>张云斈</t>
@@ -3141,7 +3136,7 @@
     <t>昭义次子，一九七六年十一月十日生于水城县老鹰山镇木桥村水营组。</t>
   </si>
   <si>
-    <t>婚配黄平芝一九七七年十二月二十五日生于水城县董地乡三锅桩，生子一：汉祥，生女一：丽君。</t>
+    <t>黄平芝一九七七年十二月二十五日生于水城县董地乡三锅桩，生子一：汉祥，生女一：丽君。</t>
   </si>
   <si>
     <t>张晴</t>
@@ -3192,7 +3187,7 @@
     <t>昭庆长子，一九八七年十一月二十六日生于水城县老鹰山镇木桥村水营组。</t>
   </si>
   <si>
-    <t>婚配罗芳敏一九九三年四月二十日生于钟山区月照乡小屯村，生女一：志涵。</t>
+    <t>罗芳敏一九九三年四月二十日生于钟山区月照乡小屯村，生女一：志涵。</t>
   </si>
   <si>
     <t>张云评</t>
@@ -3294,13 +3289,13 @@
     <t>昭全长子，生于一九六七年。</t>
   </si>
   <si>
-    <t>婚配王氏生于一九七〇年，生子二：国平、文明。</t>
+    <t>王氏生于一九七〇年，生子二：国平、文明。</t>
   </si>
   <si>
     <t>昭华长子，生于一九六七年。</t>
   </si>
   <si>
-    <t>婚配王氏生于一九七〇年，生子二：汉东、汉波。</t>
+    <t>王氏生于一九七〇年，生子二：汉东、汉波。</t>
   </si>
   <si>
     <t>张琪</t>
@@ -3468,7 +3463,7 @@
     <t>云学长子，生于一九八四年十二月八日，住水城老鹰山白岩脚。</t>
   </si>
   <si>
-    <t>婚配曾永飞生女一：高艳。继配赵霞生子一：康康。</t>
+    <t>曾永飞生女一：高艳。赵霞生子一：康康。</t>
   </si>
   <si>
     <t>张汉静</t>
@@ -3783,7 +3778,7 @@
     <t>荣锋长子，生于一九七四年八月十四日。</t>
   </si>
   <si>
-    <t>婚配黄艳生于一九七六年二月十一日，生子一：高达，生女一：张韬。</t>
+    <t>黄艳生于一九七六年二月十一日，生子一：高达，生女一：张韬。</t>
   </si>
   <si>
     <t>张宇</t>
@@ -3798,7 +3793,7 @@
     <t>荣耀长子，生于一九八一年七月十五日。</t>
   </si>
   <si>
-    <t>婚配钱丽荣生于一九八七年八月十六日，生子二：宇航、浩南，生女一：逾涵。</t>
+    <t>钱丽荣生于一九八七年八月十六日，生子二：宇航、浩南，生女一：逾涵。</t>
   </si>
   <si>
     <t>张韬长女。</t>
@@ -3813,7 +3808,7 @@
     <t>云发长子，一九八四年前十月二十一日未时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配孙维一九八九年十一月三十日未时生于水城县老鹰山镇陆家坝村陆家坝组，生子一：耀升，生女一：高鱼。</t>
+    <t>孙维一九八九年十一月三十日未时生于水城县老鹰山镇陆家坝村陆家坝组，生子一：耀升，生女一：高鱼。</t>
   </si>
   <si>
     <t>张汉银</t>
@@ -3834,7 +3829,7 @@
     <t>云学长子，一九八七年三月二十六日生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配邓婕一九九〇年十月八日生于水城县阿戛乡，生子一：高阳，生女一：高怡。</t>
+    <t>邓婕一九九〇年十月八日生于水城县阿戛乡，生子一：高阳，生女一：高怡。</t>
   </si>
   <si>
     <t>张汉裳</t>
@@ -3849,7 +3844,7 @@
     <t>云祥长子，一九八九年一月十二日子时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
   </si>
   <si>
-    <t>婚配彭益秀一九九六年一月十一日卯时生于六枝特区牛场乡牛场村大破组，生子一：高远，生女一：高琪。</t>
+    <t>彭益秀一九九六年一月十一日卯时生于六枝特区牛场乡牛场村大破组，生子一：高远，生女一：高琪。</t>
   </si>
   <si>
     <t>张云长女，一九九六年十二月二十五日巳时生于水城县老鹰山镇陆家坝村陆家坝组。</t>
@@ -4050,20 +4045,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4091,23 +4079,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4149,7 +4129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4181,10 +4161,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4216,7 +4195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4392,26 +4370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4460,7 +4426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4486,7 +4452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4512,7 +4478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4538,7 +4504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4564,7 +4530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4590,7 +4556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4610,7 +4576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4636,7 +4602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4662,7 +4628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4688,7 +4654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4714,7 +4680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4740,7 +4706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4766,7 +4732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4792,7 +4758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4812,7 +4778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4832,7 +4798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4858,7 +4824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4884,7 +4850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4910,7 +4876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4936,7 +4902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4962,7 +4928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4982,7 +4948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5002,7 +4968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5022,7 +4988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5042,7 +5008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5053,7 +5019,7 @@
         <v>80</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>14</v>
@@ -5062,7 +5028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5073,7 +5039,7 @@
         <v>82</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -5082,7 +5048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5108,7 +5074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5128,7 +5094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5148,7 +5114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5171,7 +5137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5197,7 +5163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5223,7 +5189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5243,7 +5209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5269,7 +5235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5289,7 +5255,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5315,7 +5281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5341,7 +5307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5367,7 +5333,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5393,7 +5359,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5413,7 +5379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5427,7 +5393,7 @@
         <v>120</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F43">
         <v>15</v>
@@ -5439,7 +5405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5450,7 +5416,7 @@
         <v>123</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F44">
         <v>15</v>
@@ -5459,7 +5425,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5470,7 +5436,7 @@
         <v>124</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F45">
         <v>15</v>
@@ -5479,7 +5445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5490,7 +5456,7 @@
         <v>125</v>
       </c>
       <c r="E46">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F46">
         <v>15</v>
@@ -5499,7 +5465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5525,7 +5491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5551,7 +5517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5577,7 +5543,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5603,7 +5569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5629,7 +5595,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5655,7 +5621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5675,7 +5641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5701,7 +5667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5712,7 +5678,7 @@
         <v>150</v>
       </c>
       <c r="E55">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>16</v>
@@ -5724,7 +5690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5735,7 +5701,7 @@
         <v>152</v>
       </c>
       <c r="E56">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>16</v>
@@ -5744,7 +5710,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5758,7 +5724,7 @@
         <v>154</v>
       </c>
       <c r="E57">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>16</v>
@@ -5770,7 +5736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5796,7 +5762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5816,7 +5782,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5836,7 +5802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5847,7 +5813,7 @@
         <v>164</v>
       </c>
       <c r="E61">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>16</v>
@@ -5856,7 +5822,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5882,7 +5848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5908,7 +5874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5928,7 +5894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5948,7 +5914,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5974,7 +5940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6000,7 +5966,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6026,7 +5992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6052,7 +6018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6072,7 +6038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6098,7 +6064,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6118,7 +6084,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6138,7 +6104,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6158,7 +6124,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6184,7 +6150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6210,7 +6176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6236,7 +6202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6262,7 +6228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6282,7 +6248,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6308,7 +6274,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6328,7 +6294,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6351,7 +6317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6377,7 +6343,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6403,7 +6369,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6423,7 +6389,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6449,7 +6415,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6475,7 +6441,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6501,7 +6467,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6527,7 +6493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6550,7 +6516,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6576,7 +6542,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6596,7 +6562,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6616,7 +6582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6642,7 +6608,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6668,7 +6634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6694,7 +6660,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6720,7 +6686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6740,7 +6706,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6766,7 +6732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6786,7 +6752,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6809,7 +6775,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6829,7 +6795,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6855,7 +6821,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6866,7 +6832,7 @@
         <v>279</v>
       </c>
       <c r="E104">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F104">
         <v>19</v>
@@ -6878,7 +6844,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6889,7 +6855,7 @@
         <v>282</v>
       </c>
       <c r="E105">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F105">
         <v>19</v>
@@ -6898,7 +6864,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6909,7 +6875,7 @@
         <v>284</v>
       </c>
       <c r="E106">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F106">
         <v>19</v>
@@ -6918,7 +6884,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6932,7 +6898,7 @@
         <v>286</v>
       </c>
       <c r="E107">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F107">
         <v>19</v>
@@ -6944,7 +6910,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6958,7 +6924,7 @@
         <v>288</v>
       </c>
       <c r="E108">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>19</v>
@@ -6970,7 +6936,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6984,7 +6950,7 @@
         <v>291</v>
       </c>
       <c r="E109">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>19</v>
@@ -6996,7 +6962,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7022,7 +6988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7048,7 +7014,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7074,7 +7040,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7100,7 +7066,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7126,7 +7092,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7146,7 +7112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7172,7 +7138,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7198,7 +7164,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7224,7 +7190,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7250,7 +7216,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7276,7 +7242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7302,7 +7268,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7322,7 +7288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7348,7 +7314,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7368,7 +7334,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7394,7 +7360,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7417,7 +7383,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7440,7 +7406,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7466,7 +7432,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7492,7 +7458,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7512,7 +7478,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7538,7 +7504,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7564,7 +7530,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7590,7 +7556,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7613,7 +7579,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7639,7 +7605,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7665,7 +7631,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7691,7 +7657,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7717,7 +7683,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7743,7 +7709,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7769,7 +7735,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7789,7 +7755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7809,7 +7775,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7835,7 +7801,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7858,7 +7824,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7884,7 +7850,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7904,7 +7870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7918,7 +7884,7 @@
         <v>396</v>
       </c>
       <c r="E147">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F147">
         <v>20</v>
@@ -7930,7 +7896,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7944,7 +7910,7 @@
         <v>399</v>
       </c>
       <c r="E148">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F148">
         <v>20</v>
@@ -7956,7 +7922,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7976,7 +7942,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8002,7 +7968,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8028,7 +7994,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8054,7 +8020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8074,7 +8040,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8100,7 +8066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8126,7 +8092,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8152,7 +8118,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8178,7 +8144,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8204,7 +8170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8230,7 +8196,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8250,7 +8216,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8276,7 +8242,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8296,7 +8262,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8316,7 +8282,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8336,7 +8302,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8356,7 +8322,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8376,7 +8342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8396,7 +8362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8422,7 +8388,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8448,7 +8414,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8474,7 +8440,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8500,7 +8466,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8511,7 +8477,7 @@
         <v>459</v>
       </c>
       <c r="E172">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F172">
         <v>20</v>
@@ -8520,7 +8486,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8546,7 +8512,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8572,7 +8538,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8592,7 +8558,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8618,7 +8584,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8638,7 +8604,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8658,7 +8624,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8684,7 +8650,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8710,7 +8676,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8736,7 +8702,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8762,7 +8728,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8788,7 +8754,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8814,7 +8780,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8840,7 +8806,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8866,7 +8832,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8886,7 +8852,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8912,7 +8878,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8938,7 +8904,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8964,7 +8930,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8990,7 +8956,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9016,7 +8982,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9042,7 +9008,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9068,7 +9034,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9094,7 +9060,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9120,7 +9086,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9146,7 +9112,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9166,7 +9132,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9186,7 +9152,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9206,7 +9172,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9232,7 +9198,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9258,7 +9224,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9284,7 +9250,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9298,7 +9264,7 @@
         <v>538</v>
       </c>
       <c r="E204">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F204">
         <v>20</v>
@@ -9310,7 +9276,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9321,7 +9287,7 @@
         <v>541</v>
       </c>
       <c r="E205">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F205">
         <v>20</v>
@@ -9330,7 +9296,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9350,7 +9316,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9376,7 +9342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9402,7 +9368,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9428,7 +9394,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9454,7 +9420,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9480,7 +9446,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9506,7 +9472,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9532,7 +9498,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9552,7 +9518,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9572,7 +9538,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9595,7 +9561,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9618,7 +9584,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9644,7 +9610,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9664,7 +9630,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9684,7 +9650,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9704,7 +9670,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9724,7 +9690,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9750,7 +9716,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9776,7 +9742,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9796,7 +9762,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9816,7 +9782,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9836,7 +9802,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9856,7 +9822,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9882,7 +9848,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9908,7 +9874,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9928,7 +9894,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9948,7 +9914,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9968,7 +9934,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9994,7 +9960,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10020,7 +9986,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10046,7 +10012,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10072,7 +10038,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10098,7 +10064,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10124,7 +10090,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10150,7 +10116,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10176,7 +10142,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10202,7 +10168,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10228,7 +10194,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10254,7 +10220,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10280,7 +10246,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10306,7 +10272,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10317,7 +10283,7 @@
         <v>645</v>
       </c>
       <c r="E247">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F247">
         <v>21</v>
@@ -10326,7 +10292,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10352,7 +10318,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10366,7 +10332,7 @@
         <v>649</v>
       </c>
       <c r="E249">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F249">
         <v>21</v>
@@ -10378,7 +10344,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10404,7 +10370,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10430,7 +10396,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10456,7 +10422,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10476,7 +10442,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10502,7 +10468,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10522,7 +10488,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10542,7 +10508,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10568,7 +10534,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10594,7 +10560,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10620,7 +10586,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10640,7 +10606,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10660,7 +10626,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10680,7 +10646,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10700,7 +10666,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10720,7 +10686,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10740,7 +10706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10766,7 +10732,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10792,7 +10758,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10812,7 +10778,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10838,7 +10804,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10864,7 +10830,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10890,7 +10856,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10904,7 +10870,7 @@
         <v>700</v>
       </c>
       <c r="E272">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F272">
         <v>21</v>
@@ -10916,7 +10882,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10942,7 +10908,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10968,7 +10934,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10988,7 +10954,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11014,7 +10980,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11028,7 +10994,7 @@
         <v>711</v>
       </c>
       <c r="E277">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F277">
         <v>21</v>
@@ -11040,7 +11006,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11051,7 +11017,7 @@
         <v>714</v>
       </c>
       <c r="E278">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F278">
         <v>21</v>
@@ -11060,7 +11026,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11086,7 +11052,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11112,7 +11078,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11126,7 +11092,7 @@
         <v>720</v>
       </c>
       <c r="E281">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F281">
         <v>21</v>
@@ -11138,7 +11104,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11149,7 +11115,7 @@
         <v>722</v>
       </c>
       <c r="E282">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F282">
         <v>21</v>
@@ -11161,7 +11127,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11175,7 +11141,7 @@
         <v>725</v>
       </c>
       <c r="E283">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F283">
         <v>21</v>
@@ -11187,7 +11153,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11207,7 +11173,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11227,7 +11193,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11241,7 +11207,7 @@
         <v>731</v>
       </c>
       <c r="E286">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F286">
         <v>21</v>
@@ -11253,7 +11219,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11279,7 +11245,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11305,7 +11271,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11331,7 +11297,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11345,7 +11311,7 @@
         <v>740</v>
       </c>
       <c r="E290">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F290">
         <v>21</v>
@@ -11357,7 +11323,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11371,7 +11337,7 @@
         <v>743</v>
       </c>
       <c r="E291">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F291">
         <v>21</v>
@@ -11383,7 +11349,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11397,7 +11363,7 @@
         <v>746</v>
       </c>
       <c r="E292">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F292">
         <v>21</v>
@@ -11409,7 +11375,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11423,7 +11389,7 @@
         <v>749</v>
       </c>
       <c r="E293">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F293">
         <v>21</v>
@@ -11435,7 +11401,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11449,7 +11415,7 @@
         <v>751</v>
       </c>
       <c r="E294">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F294">
         <v>21</v>
@@ -11461,7 +11427,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11472,7 +11438,7 @@
         <v>754</v>
       </c>
       <c r="E295">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F295">
         <v>21</v>
@@ -11481,7 +11447,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11492,7 +11458,7 @@
         <v>756</v>
       </c>
       <c r="E296">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F296">
         <v>21</v>
@@ -11501,7 +11467,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11527,7 +11493,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11547,7 +11513,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11570,7 +11536,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11590,7 +11556,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11601,7 +11567,7 @@
         <v>764</v>
       </c>
       <c r="E301">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F301">
         <v>21</v>
@@ -11610,7 +11576,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11621,7 +11587,7 @@
         <v>714</v>
       </c>
       <c r="E302">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F302">
         <v>21</v>
@@ -11630,7 +11596,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11650,7 +11616,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11670,7 +11636,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11684,7 +11650,7 @@
         <v>771</v>
       </c>
       <c r="E305">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F305">
         <v>21</v>
@@ -11696,7 +11662,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11710,7 +11676,7 @@
         <v>774</v>
       </c>
       <c r="E306">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F306">
         <v>21</v>
@@ -11722,7 +11688,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11748,7 +11714,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11774,7 +11740,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11785,7 +11751,7 @@
         <v>782</v>
       </c>
       <c r="E309">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F309">
         <v>21</v>
@@ -11794,7 +11760,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11805,7 +11771,7 @@
         <v>784</v>
       </c>
       <c r="E310">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F310">
         <v>21</v>
@@ -11814,7 +11780,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>310</v>
       </c>
@@ -11825,7 +11791,7 @@
         <v>786</v>
       </c>
       <c r="E311">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F311">
         <v>21</v>
@@ -11834,7 +11800,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>311</v>
       </c>
@@ -11845,7 +11811,7 @@
         <v>787</v>
       </c>
       <c r="E312">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="F312">
         <v>21</v>
@@ -11854,7 +11820,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>312</v>
       </c>
@@ -11874,7 +11840,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>313</v>
       </c>
@@ -11894,7 +11860,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>314</v>
       </c>
@@ -11914,7 +11880,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>315</v>
       </c>
@@ -11934,7 +11900,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11954,7 +11920,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11974,7 +11940,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11985,7 +11951,7 @@
         <v>798</v>
       </c>
       <c r="E319">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F319">
         <v>21</v>
@@ -11994,7 +11960,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12014,7 +11980,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12034,7 +12000,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12060,7 +12026,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12080,7 +12046,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12100,7 +12066,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12111,7 +12077,7 @@
         <v>811</v>
       </c>
       <c r="E325">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="F325">
         <v>22</v>
@@ -12120,7 +12086,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12131,7 +12097,7 @@
         <v>813</v>
       </c>
       <c r="E326">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="F326">
         <v>22</v>
@@ -12140,7 +12106,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12160,7 +12126,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12180,7 +12146,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12200,7 +12166,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12220,7 +12186,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12240,7 +12206,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12260,7 +12226,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12280,7 +12246,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12300,7 +12266,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12320,7 +12286,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12340,7 +12306,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12360,7 +12326,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12380,7 +12346,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12400,7 +12366,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>339</v>
       </c>
@@ -12423,7 +12389,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>340</v>
       </c>
@@ -12443,7 +12409,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>341</v>
       </c>
@@ -12454,7 +12420,7 @@
         <v>845</v>
       </c>
       <c r="E342">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F342">
         <v>22</v>
@@ -12463,7 +12429,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>342</v>
       </c>
@@ -12477,7 +12443,7 @@
         <v>847</v>
       </c>
       <c r="E343">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F343">
         <v>22</v>
@@ -12489,7 +12455,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>343</v>
       </c>
@@ -12503,7 +12469,7 @@
         <v>850</v>
       </c>
       <c r="E344">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F344">
         <v>22</v>
@@ -12515,7 +12481,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>344</v>
       </c>
@@ -12529,7 +12495,7 @@
         <v>853</v>
       </c>
       <c r="E345">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F345">
         <v>22</v>
@@ -12541,7 +12507,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>345</v>
       </c>
@@ -12555,7 +12521,7 @@
         <v>856</v>
       </c>
       <c r="E346">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F346">
         <v>22</v>
@@ -12567,7 +12533,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>346</v>
       </c>
@@ -12593,7 +12559,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>347</v>
       </c>
@@ -12607,7 +12573,7 @@
         <v>861</v>
       </c>
       <c r="E348">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F348">
         <v>22</v>
@@ -12619,7 +12585,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>348</v>
       </c>
@@ -12639,7 +12605,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>349</v>
       </c>
@@ -12659,7 +12625,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>350</v>
       </c>
@@ -12679,7 +12645,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>351</v>
       </c>
@@ -12705,7 +12671,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>352</v>
       </c>
@@ -12731,7 +12697,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>353</v>
       </c>
@@ -12757,7 +12723,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>354</v>
       </c>
@@ -12777,7 +12743,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>355</v>
       </c>
@@ -12797,7 +12763,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>356</v>
       </c>
@@ -12823,7 +12789,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>357</v>
       </c>
@@ -12849,7 +12815,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>358</v>
       </c>
@@ -12872,7 +12838,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>359</v>
       </c>
@@ -12892,7 +12858,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>360</v>
       </c>
@@ -12912,7 +12878,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>361</v>
       </c>
@@ -12938,7 +12904,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>362</v>
       </c>
@@ -12964,7 +12930,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>363</v>
       </c>
@@ -12975,7 +12941,7 @@
         <v>899</v>
       </c>
       <c r="E364">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="F364">
         <v>22</v>
@@ -12984,7 +12950,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>364</v>
       </c>
@@ -12998,7 +12964,7 @@
         <v>901</v>
       </c>
       <c r="E365">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F365">
         <v>22</v>
@@ -13010,7 +12976,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13024,7 +12990,7 @@
         <v>903</v>
       </c>
       <c r="E366">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F366">
         <v>22</v>
@@ -13036,7 +13002,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13056,7 +13022,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>367</v>
       </c>
@@ -13076,7 +13042,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13090,7 +13056,7 @@
         <v>910</v>
       </c>
       <c r="E369">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F369">
         <v>22</v>
@@ -13102,7 +13068,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>369</v>
       </c>
@@ -13116,7 +13082,7 @@
         <v>913</v>
       </c>
       <c r="E370">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F370">
         <v>22</v>
@@ -13128,7 +13094,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>370</v>
       </c>
@@ -13154,7 +13120,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>371</v>
       </c>
@@ -13165,7 +13131,7 @@
         <v>918</v>
       </c>
       <c r="E372">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F372">
         <v>22</v>
@@ -13174,7 +13140,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>372</v>
       </c>
@@ -13185,7 +13151,7 @@
         <v>920</v>
       </c>
       <c r="E373">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F373">
         <v>22</v>
@@ -13194,7 +13160,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>373</v>
       </c>
@@ -13205,7 +13171,7 @@
         <v>921</v>
       </c>
       <c r="E374">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F374">
         <v>22</v>
@@ -13214,7 +13180,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>374</v>
       </c>
@@ -13234,7 +13200,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>375</v>
       </c>
@@ -13260,7 +13226,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>376</v>
       </c>
@@ -13286,7 +13252,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>377</v>
       </c>
@@ -13312,7 +13278,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>378</v>
       </c>
@@ -13338,7 +13304,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>379</v>
       </c>
@@ -13364,7 +13330,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>380</v>
       </c>
@@ -13390,7 +13356,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>381</v>
       </c>
@@ -13413,7 +13379,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>382</v>
       </c>
@@ -13436,7 +13402,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>383</v>
       </c>
@@ -13459,7 +13425,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>384</v>
       </c>
@@ -13482,7 +13448,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>385</v>
       </c>
@@ -13505,7 +13471,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>386</v>
       </c>
@@ -13528,7 +13494,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>387</v>
       </c>
@@ -13551,7 +13517,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>388</v>
       </c>
@@ -13574,7 +13540,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>389</v>
       </c>
@@ -13597,7 +13563,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>390</v>
       </c>
@@ -13620,7 +13586,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>391</v>
       </c>
@@ -13640,7 +13606,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>392</v>
       </c>
@@ -13660,7 +13626,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>393</v>
       </c>
@@ -13683,7 +13649,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>394</v>
       </c>
@@ -13706,7 +13672,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>395</v>
       </c>
@@ -13726,7 +13692,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>396</v>
       </c>
@@ -13746,7 +13712,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>397</v>
       </c>
@@ -13760,7 +13726,7 @@
         <v>970</v>
       </c>
       <c r="E398">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F398">
         <v>22</v>
@@ -13772,7 +13738,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>398</v>
       </c>
@@ -13786,7 +13752,7 @@
         <v>973</v>
       </c>
       <c r="E399">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F399">
         <v>22</v>
@@ -13798,7 +13764,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>399</v>
       </c>
@@ -13821,7 +13787,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>400</v>
       </c>
@@ -13841,7 +13807,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>401</v>
       </c>
@@ -13861,7 +13827,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>402</v>
       </c>
@@ -13875,7 +13841,7 @@
         <v>982</v>
       </c>
       <c r="E403">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="F403">
         <v>22</v>
@@ -13887,7 +13853,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>403</v>
       </c>
@@ -13898,7 +13864,7 @@
         <v>985</v>
       </c>
       <c r="E404">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="F404">
         <v>22</v>
@@ -13907,7 +13873,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>404</v>
       </c>
@@ -13918,7 +13884,7 @@
         <v>987</v>
       </c>
       <c r="E405">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F405">
         <v>22</v>
@@ -13927,7 +13893,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>405</v>
       </c>
@@ -13938,7 +13904,7 @@
         <v>989</v>
       </c>
       <c r="E406">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F406">
         <v>22</v>
@@ -13947,7 +13913,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>406</v>
       </c>
@@ -13973,7 +13939,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>407</v>
       </c>
@@ -13999,7 +13965,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>408</v>
       </c>
@@ -14025,7 +13991,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>409</v>
       </c>
@@ -14045,7 +14011,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>410</v>
       </c>
@@ -14065,7 +14031,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>411</v>
       </c>
@@ -14091,7 +14057,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>412</v>
       </c>
@@ -14117,7 +14083,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>413</v>
       </c>
@@ -14143,7 +14109,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>414</v>
       </c>
@@ -14169,7 +14135,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>415</v>
       </c>
@@ -14195,7 +14161,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>416</v>
       </c>
@@ -14215,7 +14181,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>417</v>
       </c>
@@ -14241,7 +14207,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>418</v>
       </c>
@@ -14267,7 +14233,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>419</v>
       </c>
@@ -14293,7 +14259,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>420</v>
       </c>
@@ -14304,7 +14270,7 @@
         <v>1023</v>
       </c>
       <c r="E421">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F421">
         <v>22</v>
@@ -14313,7 +14279,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>421</v>
       </c>
@@ -14324,7 +14290,7 @@
         <v>1025</v>
       </c>
       <c r="E422">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F422">
         <v>22</v>
@@ -14333,7 +14299,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>422</v>
       </c>
@@ -14344,7 +14310,7 @@
         <v>1026</v>
       </c>
       <c r="E423">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F423">
         <v>22</v>
@@ -14353,7 +14319,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>423</v>
       </c>
@@ -14364,7 +14330,7 @@
         <v>1028</v>
       </c>
       <c r="E424">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F424">
         <v>22</v>
@@ -14373,7 +14339,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>424</v>
       </c>
@@ -14384,7 +14350,7 @@
         <v>1029</v>
       </c>
       <c r="E425">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F425">
         <v>22</v>
@@ -14393,7 +14359,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>425</v>
       </c>
@@ -14407,7 +14373,7 @@
         <v>1030</v>
       </c>
       <c r="E426">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F426">
         <v>22</v>
@@ -14419,7 +14385,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>426</v>
       </c>
@@ -14439,7 +14405,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>427</v>
       </c>
@@ -14459,7 +14425,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>428</v>
       </c>
@@ -14485,7 +14451,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>429</v>
       </c>
@@ -14511,7 +14477,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>430</v>
       </c>
@@ -14522,7 +14488,7 @@
         <v>1042</v>
       </c>
       <c r="E431">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F431">
         <v>22</v>
@@ -14531,7 +14497,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>431</v>
       </c>
@@ -14542,7 +14508,7 @@
         <v>1043</v>
       </c>
       <c r="E432">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F432">
         <v>22</v>
@@ -14551,7 +14517,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>432</v>
       </c>
@@ -14562,7 +14528,7 @@
         <v>1045</v>
       </c>
       <c r="E433">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F433">
         <v>22</v>
@@ -14571,7 +14537,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>433</v>
       </c>
@@ -14582,7 +14548,7 @@
         <v>1047</v>
       </c>
       <c r="E434">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F434">
         <v>22</v>
@@ -14591,7 +14557,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>434</v>
       </c>
@@ -14611,7 +14577,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>435</v>
       </c>
@@ -14631,7 +14597,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>436</v>
       </c>
@@ -14651,7 +14617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>437</v>
       </c>
@@ -14662,7 +14628,7 @@
         <v>1054</v>
       </c>
       <c r="E438">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="F438">
         <v>22</v>
@@ -14671,7 +14637,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>438</v>
       </c>
@@ -14691,7 +14657,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>439</v>
       </c>
@@ -14717,7 +14683,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>440</v>
       </c>
@@ -14737,7 +14703,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>441</v>
       </c>
@@ -14748,7 +14714,7 @@
         <v>1061</v>
       </c>
       <c r="E442">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F442">
         <v>22</v>
@@ -14757,7 +14723,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>442</v>
       </c>
@@ -14768,7 +14734,7 @@
         <v>1063</v>
       </c>
       <c r="E443">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F443">
         <v>22</v>
@@ -14777,7 +14743,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>443</v>
       </c>
@@ -14788,7 +14754,7 @@
         <v>1064</v>
       </c>
       <c r="E444">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F444">
         <v>22</v>
@@ -14797,7 +14763,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>444</v>
       </c>
@@ -14817,7 +14783,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>445</v>
       </c>
@@ -14828,7 +14794,7 @@
         <v>1067</v>
       </c>
       <c r="E446">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="F446">
         <v>22</v>
@@ -14837,7 +14803,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>446</v>
       </c>
@@ -14848,7 +14814,7 @@
         <v>1069</v>
       </c>
       <c r="E447">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="F447">
         <v>22</v>
@@ -14857,7 +14823,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>447</v>
       </c>
@@ -14868,7 +14834,7 @@
         <v>1071</v>
       </c>
       <c r="E448">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="F448">
         <v>22</v>
@@ -14877,7 +14843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>448</v>
       </c>
@@ -14888,7 +14854,7 @@
         <v>1073</v>
       </c>
       <c r="E449">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="F449">
         <v>22</v>
@@ -14897,7 +14863,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>449</v>
       </c>
@@ -14908,7 +14874,7 @@
         <v>1066</v>
       </c>
       <c r="E450">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F450">
         <v>22</v>
@@ -14917,7 +14883,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>450</v>
       </c>
@@ -14928,7 +14894,7 @@
         <v>1074</v>
       </c>
       <c r="E451">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F451">
         <v>22</v>
@@ -14937,7 +14903,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>451</v>
       </c>
@@ -14948,7 +14914,7 @@
         <v>1076</v>
       </c>
       <c r="E452">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F452">
         <v>22</v>
@@ -14957,7 +14923,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>452</v>
       </c>
@@ -14968,7 +14934,7 @@
         <v>1078</v>
       </c>
       <c r="E453">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F453">
         <v>22</v>
@@ -14977,7 +14943,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>453</v>
       </c>
@@ -14988,7 +14954,7 @@
         <v>1080</v>
       </c>
       <c r="E454">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F454">
         <v>22</v>
@@ -14997,7 +14963,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>454</v>
       </c>
@@ -15017,7 +14983,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>455</v>
       </c>
@@ -15037,7 +15003,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>456</v>
       </c>
@@ -15048,7 +15014,7 @@
         <v>1083</v>
       </c>
       <c r="E457">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F457">
         <v>22</v>
@@ -15057,7 +15023,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>457</v>
       </c>
@@ -15077,7 +15043,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>458</v>
       </c>
@@ -15088,7 +15054,7 @@
         <v>1087</v>
       </c>
       <c r="E459">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="F459">
         <v>22</v>
@@ -15097,7 +15063,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>459</v>
       </c>
@@ -15108,7 +15074,7 @@
         <v>1089</v>
       </c>
       <c r="E460">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="F460">
         <v>22</v>
@@ -15117,7 +15083,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>460</v>
       </c>
@@ -15131,7 +15097,7 @@
         <v>1090</v>
       </c>
       <c r="E461">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="F461">
         <v>22</v>
@@ -15143,7 +15109,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>461</v>
       </c>
@@ -15157,7 +15123,7 @@
         <v>1092</v>
       </c>
       <c r="E462">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F462">
         <v>22</v>
@@ -15169,7 +15135,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>462</v>
       </c>
@@ -15180,7 +15146,7 @@
         <v>1095</v>
       </c>
       <c r="E463">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F463">
         <v>22</v>
@@ -15189,7 +15155,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>463</v>
       </c>
@@ -15200,7 +15166,7 @@
         <v>1097</v>
       </c>
       <c r="E464">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F464">
         <v>22</v>
@@ -15209,7 +15175,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>464</v>
       </c>
@@ -15220,7 +15186,7 @@
         <v>1099</v>
       </c>
       <c r="E465">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="F465">
         <v>22</v>
@@ -15229,7 +15195,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>465</v>
       </c>
@@ -15240,7 +15206,7 @@
         <v>1100</v>
       </c>
       <c r="E466">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="F466">
         <v>22</v>
@@ -15249,7 +15215,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>466</v>
       </c>
@@ -15260,7 +15226,7 @@
         <v>1102</v>
       </c>
       <c r="E467">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F467">
         <v>22</v>
@@ -15269,7 +15235,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>467</v>
       </c>
@@ -15280,7 +15246,7 @@
         <v>1104</v>
       </c>
       <c r="E468">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F468">
         <v>22</v>
@@ -15289,7 +15255,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>468</v>
       </c>
@@ -15309,7 +15275,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>469</v>
       </c>
@@ -15329,7 +15295,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>470</v>
       </c>
@@ -15349,7 +15315,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>471</v>
       </c>
@@ -15369,7 +15335,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>472</v>
       </c>
@@ -15389,7 +15355,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>473</v>
       </c>
@@ -15409,7 +15375,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>474</v>
       </c>
@@ -15420,7 +15386,7 @@
         <v>1116</v>
       </c>
       <c r="E475">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="F475">
         <v>22</v>
@@ -15429,7 +15395,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>475</v>
       </c>
@@ -15440,7 +15406,7 @@
         <v>1118</v>
       </c>
       <c r="E476">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="F476">
         <v>22</v>
@@ -15449,7 +15415,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>476</v>
       </c>
@@ -15460,7 +15426,7 @@
         <v>1120</v>
       </c>
       <c r="E477">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="F477">
         <v>22</v>
@@ -15469,7 +15435,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>477</v>
       </c>
@@ -15489,7 +15455,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>478</v>
       </c>
@@ -15509,7 +15475,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>479</v>
       </c>
@@ -15529,7 +15495,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>480</v>
       </c>
@@ -15549,7 +15515,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>481</v>
       </c>
@@ -15569,7 +15535,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>482</v>
       </c>
@@ -15589,7 +15555,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>483</v>
       </c>
@@ -15609,7 +15575,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>484</v>
       </c>
@@ -15629,7 +15595,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>485</v>
       </c>
@@ -15649,7 +15615,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>486</v>
       </c>
@@ -15669,7 +15635,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>487</v>
       </c>
@@ -15689,7 +15655,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>488</v>
       </c>
@@ -15709,7 +15675,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>489</v>
       </c>
@@ -15729,7 +15695,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>490</v>
       </c>
@@ -15749,7 +15715,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>491</v>
       </c>
@@ -15775,7 +15741,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>492</v>
       </c>
@@ -15795,7 +15761,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>493</v>
       </c>
@@ -15815,7 +15781,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>494</v>
       </c>
@@ -15835,7 +15801,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>495</v>
       </c>
@@ -15846,7 +15812,7 @@
         <v>1157</v>
       </c>
       <c r="E496">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F496">
         <v>23</v>
@@ -15855,7 +15821,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>496</v>
       </c>
@@ -15866,7 +15832,7 @@
         <v>1158</v>
       </c>
       <c r="E497">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F497">
         <v>23</v>
@@ -15875,7 +15841,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>497</v>
       </c>
@@ -15895,7 +15861,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>498</v>
       </c>
@@ -15915,7 +15881,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>499</v>
       </c>
@@ -15935,7 +15901,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>500</v>
       </c>
@@ -15955,7 +15921,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>501</v>
       </c>
@@ -15975,7 +15941,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>502</v>
       </c>
@@ -15995,7 +15961,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>503</v>
       </c>
@@ -16006,7 +15972,7 @@
         <v>1172</v>
       </c>
       <c r="E504">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="F504">
         <v>23</v>
@@ -16015,7 +15981,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>504</v>
       </c>
@@ -16035,7 +16001,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>505</v>
       </c>
@@ -16055,7 +16021,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>506</v>
       </c>
@@ -16066,7 +16032,7 @@
         <v>1178</v>
       </c>
       <c r="E507">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F507">
         <v>23</v>
@@ -16075,7 +16041,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>507</v>
       </c>
@@ -16086,7 +16052,7 @@
         <v>1180</v>
       </c>
       <c r="E508">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F508">
         <v>23</v>
@@ -16095,7 +16061,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>508</v>
       </c>
@@ -16106,7 +16072,7 @@
         <v>1181</v>
       </c>
       <c r="E509">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="F509">
         <v>23</v>
@@ -16115,7 +16081,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>509</v>
       </c>
@@ -16126,7 +16092,7 @@
         <v>1183</v>
       </c>
       <c r="E510">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="F510">
         <v>23</v>
@@ -16135,7 +16101,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>510</v>
       </c>
@@ -16146,7 +16112,7 @@
         <v>1185</v>
       </c>
       <c r="E511">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="F511">
         <v>23</v>
@@ -16155,7 +16121,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>511</v>
       </c>
@@ -16166,7 +16132,7 @@
         <v>1187</v>
       </c>
       <c r="E512">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="F512">
         <v>23</v>
@@ -16175,7 +16141,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>512</v>
       </c>
@@ -16195,7 +16161,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>513</v>
       </c>
@@ -16215,7 +16181,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>514</v>
       </c>
@@ -16235,7 +16201,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>515</v>
       </c>
@@ -16255,7 +16221,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>516</v>
       </c>
@@ -16275,7 +16241,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>517</v>
       </c>
@@ -16286,7 +16252,7 @@
         <v>1198</v>
       </c>
       <c r="E518">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="F518">
         <v>23</v>
@@ -16295,7 +16261,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>518</v>
       </c>
@@ -16315,7 +16281,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>519</v>
       </c>
@@ -16335,7 +16301,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>520</v>
       </c>
@@ -16355,7 +16321,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>521</v>
       </c>
@@ -16375,7 +16341,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>522</v>
       </c>
@@ -16395,7 +16361,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>523</v>
       </c>
@@ -16415,7 +16381,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>524</v>
       </c>
@@ -16435,7 +16401,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>525</v>
       </c>
@@ -16446,7 +16412,7 @@
         <v>1212</v>
       </c>
       <c r="E526">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F526">
         <v>23</v>
@@ -16455,7 +16421,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>526</v>
       </c>
@@ -16466,7 +16432,7 @@
         <v>1213</v>
       </c>
       <c r="E527">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F527">
         <v>23</v>
@@ -16475,7 +16441,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>527</v>
       </c>
@@ -16495,7 +16461,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>528</v>
       </c>
@@ -16515,7 +16481,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>529</v>
       </c>
@@ -16526,7 +16492,7 @@
         <v>1218</v>
       </c>
       <c r="E530">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F530">
         <v>23</v>
@@ -16535,7 +16501,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>530</v>
       </c>
@@ -16546,7 +16512,7 @@
         <v>1220</v>
       </c>
       <c r="E531">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F531">
         <v>23</v>
@@ -16555,7 +16521,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>531</v>
       </c>
@@ -16566,7 +16532,7 @@
         <v>1222</v>
       </c>
       <c r="E532">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F532">
         <v>23</v>
@@ -16575,7 +16541,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>532</v>
       </c>
@@ -16586,7 +16552,7 @@
         <v>1224</v>
       </c>
       <c r="E533">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="F533">
         <v>23</v>
@@ -16595,7 +16561,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>533</v>
       </c>
@@ -16606,7 +16572,7 @@
         <v>1226</v>
       </c>
       <c r="E534">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="F534">
         <v>23</v>
@@ -16615,7 +16581,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>534</v>
       </c>
@@ -16626,7 +16592,7 @@
         <v>1228</v>
       </c>
       <c r="E535">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="F535">
         <v>23</v>
@@ -16635,7 +16601,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>535</v>
       </c>
@@ -16646,7 +16612,7 @@
         <v>1230</v>
       </c>
       <c r="E536">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="F536">
         <v>23</v>
@@ -16655,7 +16621,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>536</v>
       </c>
@@ -16666,7 +16632,7 @@
         <v>1232</v>
       </c>
       <c r="E537">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="F537">
         <v>23</v>
@@ -16675,7 +16641,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>537</v>
       </c>
@@ -16686,7 +16652,7 @@
         <v>1234</v>
       </c>
       <c r="E538">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="F538">
         <v>23</v>
@@ -16695,7 +16661,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>538</v>
       </c>
@@ -16706,7 +16672,7 @@
         <v>1236</v>
       </c>
       <c r="E539">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="F539">
         <v>23</v>
@@ -16715,7 +16681,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>539</v>
       </c>
@@ -16726,7 +16692,7 @@
         <v>1136</v>
       </c>
       <c r="E540">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="F540">
         <v>23</v>
@@ -16735,7 +16701,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>540</v>
       </c>
@@ -16746,7 +16712,7 @@
         <v>1238</v>
       </c>
       <c r="E541">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="F541">
         <v>23</v>
@@ -16755,7 +16721,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>541</v>
       </c>
@@ -16766,7 +16732,7 @@
         <v>1240</v>
       </c>
       <c r="E542">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="F542">
         <v>23</v>
@@ -16775,7 +16741,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>542</v>
       </c>
@@ -16795,7 +16761,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>543</v>
       </c>
@@ -16815,7 +16781,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>544</v>
       </c>
@@ -16835,7 +16801,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>545</v>
       </c>
@@ -16855,7 +16821,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>546</v>
       </c>
@@ -16875,7 +16841,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>547</v>
       </c>
@@ -16895,7 +16861,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>548</v>
       </c>
@@ -16921,7 +16887,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>549</v>
       </c>
@@ -16941,7 +16907,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>550</v>
       </c>
@@ -16967,7 +16933,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>551</v>
       </c>
@@ -16987,7 +16953,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>552</v>
       </c>
@@ -17007,7 +16973,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>553</v>
       </c>
@@ -17018,7 +16984,7 @@
         <v>1262</v>
       </c>
       <c r="E554">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F554">
         <v>23</v>
@@ -17027,7 +16993,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>554</v>
       </c>
@@ -17041,7 +17007,7 @@
         <v>1263</v>
       </c>
       <c r="E555">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F555">
         <v>23</v>
@@ -17053,7 +17019,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>555</v>
       </c>
@@ -17064,7 +17030,7 @@
         <v>1266</v>
       </c>
       <c r="E556">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F556">
         <v>23</v>
@@ -17073,7 +17039,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>556</v>
       </c>
@@ -17084,7 +17050,7 @@
         <v>1268</v>
       </c>
       <c r="E557">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="F557">
         <v>23</v>
@@ -17093,7 +17059,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>557</v>
       </c>
@@ -17107,7 +17073,7 @@
         <v>1270</v>
       </c>
       <c r="E558">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="F558">
         <v>23</v>
@@ -17119,7 +17085,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>558</v>
       </c>
@@ -17130,7 +17096,7 @@
         <v>1273</v>
       </c>
       <c r="E559">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="F559">
         <v>23</v>
@@ -17139,7 +17105,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>559</v>
       </c>
@@ -17153,7 +17119,7 @@
         <v>1275</v>
       </c>
       <c r="E560">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="F560">
         <v>23</v>
@@ -17165,7 +17131,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>560</v>
       </c>
@@ -17176,7 +17142,7 @@
         <v>1277</v>
       </c>
       <c r="E561">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="F561">
         <v>23</v>
@@ -17185,7 +17151,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>561</v>
       </c>
@@ -17196,7 +17162,7 @@
         <v>1278</v>
       </c>
       <c r="E562">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="F562">
         <v>23</v>
@@ -17205,7 +17171,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>562</v>
       </c>
@@ -17216,7 +17182,7 @@
         <v>1279</v>
       </c>
       <c r="E563">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="F563">
         <v>23</v>
@@ -17225,7 +17191,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>563</v>
       </c>
@@ -17245,7 +17211,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>564</v>
       </c>
@@ -17265,7 +17231,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>565</v>
       </c>
@@ -17285,7 +17251,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>566</v>
       </c>
@@ -17296,7 +17262,7 @@
         <v>1287</v>
       </c>
       <c r="E567">
-        <v>339</v>
+        <v>417</v>
       </c>
       <c r="F567">
         <v>23</v>
@@ -17305,7 +17271,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>567</v>
       </c>
@@ -17316,7 +17282,7 @@
         <v>1289</v>
       </c>
       <c r="E568">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="F568">
         <v>23</v>
@@ -17325,7 +17291,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>568</v>
       </c>
@@ -17336,7 +17302,7 @@
         <v>1291</v>
       </c>
       <c r="E569">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="F569">
         <v>23</v>
@@ -17345,7 +17311,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>569</v>
       </c>
@@ -17365,7 +17331,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>570</v>
       </c>
@@ -17376,7 +17342,7 @@
         <v>1295</v>
       </c>
       <c r="E571">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F571">
         <v>23</v>
@@ -17385,7 +17351,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>571</v>
       </c>
@@ -17396,7 +17362,7 @@
         <v>1297</v>
       </c>
       <c r="E572">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F572">
         <v>23</v>
@@ -17405,7 +17371,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>572</v>
       </c>
@@ -17416,7 +17382,7 @@
         <v>1299</v>
       </c>
       <c r="E573">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F573">
         <v>23</v>
@@ -17425,7 +17391,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>573</v>
       </c>
@@ -17436,7 +17402,7 @@
         <v>1300</v>
       </c>
       <c r="E574">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="F574">
         <v>23</v>
@@ -17445,7 +17411,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>574</v>
       </c>
@@ -17456,7 +17422,7 @@
         <v>1301</v>
       </c>
       <c r="E575">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="F575">
         <v>23</v>
@@ -17465,7 +17431,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>575</v>
       </c>
@@ -17476,7 +17442,7 @@
         <v>1303</v>
       </c>
       <c r="E576">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="F576">
         <v>23</v>
@@ -17485,7 +17451,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>576</v>
       </c>
@@ -17505,7 +17471,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>577</v>
       </c>
@@ -17525,7 +17491,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>578</v>
       </c>
@@ -17536,7 +17502,7 @@
         <v>1308</v>
       </c>
       <c r="E579">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="F579">
         <v>23</v>
@@ -17545,7 +17511,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>579</v>
       </c>
@@ -17556,7 +17522,7 @@
         <v>1310</v>
       </c>
       <c r="E580">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="F580">
         <v>23</v>
@@ -17565,7 +17531,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>580</v>
       </c>
@@ -17576,7 +17542,7 @@
         <v>1311</v>
       </c>
       <c r="E581">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="F581">
         <v>23</v>
@@ -17585,7 +17551,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>581</v>
       </c>
@@ -17596,7 +17562,7 @@
         <v>1313</v>
       </c>
       <c r="E582">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="F582">
         <v>23</v>
@@ -17605,7 +17571,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>582</v>
       </c>
@@ -17616,7 +17582,7 @@
         <v>1315</v>
       </c>
       <c r="E583">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="F583">
         <v>23</v>
@@ -17625,7 +17591,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>583</v>
       </c>
@@ -17645,7 +17611,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>584</v>
       </c>
@@ -17665,7 +17631,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>585</v>
       </c>
@@ -17676,7 +17642,7 @@
         <v>1321</v>
       </c>
       <c r="E586">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="F586">
         <v>24</v>
@@ -17685,7 +17651,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>586</v>
       </c>
@@ -17696,7 +17662,7 @@
         <v>1323</v>
       </c>
       <c r="E587">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="F587">
         <v>24</v>
@@ -17705,7 +17671,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>587</v>
       </c>
@@ -17725,7 +17691,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>588</v>
       </c>
@@ -17745,7 +17711,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>589</v>
       </c>
@@ -17765,7 +17731,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>590</v>
       </c>
@@ -17776,7 +17742,7 @@
         <v>1331</v>
       </c>
       <c r="E591">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="F591">
         <v>24</v>
@@ -17785,7 +17751,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>591</v>
       </c>
@@ -17796,7 +17762,7 @@
         <v>1333</v>
       </c>
       <c r="E592">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="F592">
         <v>24</v>
@@ -17805,7 +17771,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>592</v>
       </c>
@@ -17825,7 +17791,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>593</v>
       </c>
@@ -17836,7 +17802,7 @@
         <v>1337</v>
       </c>
       <c r="E594">
-        <v>557</v>
+        <v>1</v>
       </c>
       <c r="F594">
         <v>24</v>
@@ -17845,7 +17811,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>594</v>
       </c>
@@ -17865,7 +17831,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>595</v>
       </c>
@@ -17886,8 +17852,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>